--- a/mappings/package_F13/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F13/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <r>
@@ -2748,7 +2748,7 @@
     <t>Received Submissions Count</t>
   </si>
   <si>
-    <t>RESULTS/AWARDED_PRIZE/NB_PARTICIPANTS</t>
+    <t>RESULTS/AWARDED_PRIZE/PARTICIPANTS/NB_PARTICIPANTS</t>
   </si>
   <si>
     <t xml:space="preserve"> epo:SubmissionStatisticalInformation / xsd:integer</t>
@@ -2763,7 +2763,7 @@
     <t>Number of participating SMEs</t>
   </si>
   <si>
-    <t>RESULTS/AWARDED_PRIZE/NB_PARTICIPANTS_SME</t>
+    <t>RESULTS/AWARDED_PRIZE/PARTICIPANTS/NB_PARTICIPANTS_SME</t>
   </si>
   <si>
     <t>epo:SubmissionStatisticalInformation / xsd:integer</t>
@@ -2803,7 +2803,7 @@
     <t>Number of participants from other countries</t>
   </si>
   <si>
-    <t>RESULTS/AWARDED_PRIZE/NB_PARTICIPANTS_OTHER_EU</t>
+    <t>RESULTS/AWARDED_PRIZE/PARTICIPANTS/NB_PARTICIPANTS_OTHER_EU</t>
   </si>
   <si>
     <r>
@@ -2962,7 +2962,7 @@
     <t>V.3.3.3</t>
   </si>
   <si>
-    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER\ADDRESS_WINNER/ADDRESS</t>
+    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/ADDRESS</t>
   </si>
   <si>
     <r>

--- a/mappings/package_F13/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F13/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>5.4.0</t>
+    <t>5.5.0</t>
   </si>
   <si>
     <r>
@@ -2694,7 +2694,7 @@
     <t>epo:LotAwardOutcome / epo:TenderAwardOutcome / epo:Winner</t>
   </si>
   <si>
-    <t>?this epo:comprisesTenderAwardOutcome / epo:awardsLotToWinner ?value</t>
+    <t>?this epo:comprisesTenderAwardOutcome / epo:indicatesAwardOfLotToWinner ?value</t>
   </si>
   <si>
     <t>V.3.1</t>

--- a/mappings/package_F13/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F13/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>5.5.0</t>
+    <t>5.6.0</t>
   </si>
   <si>
     <r>
@@ -2724,10 +2724,10 @@
     <t>Information about participants</t>
   </si>
   <si>
-    <t>epo:SubmissionStatisticalInformation / epo:Lot</t>
-  </si>
-  <si>
-    <t>?this epo:concernsSubmissionsForLot ?value .</t>
+    <t>epo:SubmissionStatisticalInformation / epo:LotAwardOutcome</t>
+  </si>
+  <si>
+    <t>?this epo:summarisesInformationForLotAwardOutcome ?value .</t>
   </si>
   <si>
     <t>V.3.2.0</t>
@@ -11528,10 +11528,10 @@
         <v>330</v>
       </c>
       <c r="F85" s="4"/>
-      <c r="G85" s="39" t="s">
+      <c r="G85" s="48" t="s">
         <v>370</v>
       </c>
-      <c r="H85" s="39" t="s">
+      <c r="H85" s="35" t="s">
         <v>371</v>
       </c>
       <c r="I85" s="7"/>
@@ -12766,7 +12766,7 @@
         <v>529</v>
       </c>
       <c r="F133" s="48"/>
-      <c r="G133" s="112" t="s">
+      <c r="G133" s="38" t="s">
         <v>530</v>
       </c>
       <c r="H133" s="35" t="s">

--- a/mappings/package_F13/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F13/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="663">
   <si>
     <t>Field</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>5.6.0</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <r>
@@ -274,6 +274,9 @@
     </r>
   </si>
   <si>
+    <t>gen_language_tags_exist.ask.rq</t>
+  </si>
+  <si>
     <t>I.1.2</t>
   </si>
   <si>
@@ -329,6 +332,9 @@
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
+  </si>
+  <si>
+    <t>gen_unique_ids.ask.rq</t>
   </si>
   <si>
     <t>I.1.3</t>
@@ -1630,6 +1636,9 @@
     </r>
   </si>
   <si>
+    <t>iss_gh_map276_language_tag_exists.ask.rq</t>
+  </si>
+  <si>
     <t>I.2.2</t>
   </si>
   <si>
@@ -2011,9 +2020,6 @@
     <t>?this epo:hasTitle ?value .</t>
   </si>
   <si>
-    <t>epo:Procedure epo:hasTitle Text</t>
-  </si>
-  <si>
     <t>II.1.1.1</t>
   </si>
   <si>
@@ -2220,27 +2226,13 @@
     <t>epo:Lot / xsd:boolean</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>?this</t>
-    </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">epo:isUsingEUFunds </t>
+      <t xml:space="preserve">?this </t>
     </r>
     <r>
       <rPr>
@@ -2248,19 +2240,7 @@
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>true .</t>
-    </r>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_EU_PROGR_RELATED</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>?this</t>
+      <t xml:space="preserve">epo:isUsingEUFunds </t>
     </r>
     <r>
       <rPr>
@@ -2268,50 +2248,28 @@
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>epo:isUsingEUFunds</t>
-    </r>
+      <t>true .</t>
+    </r>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_EU_PROGR_RELATED</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve"> false .</t>
-    </r>
-  </si>
-  <si>
-    <t>II.2.13.2</t>
-  </si>
-  <si>
-    <t>Identification of the project</t>
-  </si>
-  <si>
-    <t>BT-5011</t>
-  </si>
-  <si>
-    <t>Contract EU Funds Identifier</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/EU_PROGR_RELATED/P</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:Fund / rdf:langString</t>
-  </si>
-  <si>
+      <t xml:space="preserve">?this </t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>?this epo:isFundedBy /</t>
+      <t>epo:isUsingEUFunds</t>
     </r>
     <r>
       <rPr>
@@ -2319,43 +2277,40 @@
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasDescription ?</t>
-    </r>
+      <t xml:space="preserve"> false .</t>
+    </r>
+  </si>
+  <si>
+    <t>II.2.13.2</t>
+  </si>
+  <si>
+    <t>Identification of the project</t>
+  </si>
+  <si>
+    <t>BT-5011</t>
+  </si>
+  <si>
+    <t>Contract EU Funds Identifier</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:Fund / rdf:langString</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>value .</t>
-    </r>
-  </si>
-  <si>
-    <t>Section IV</t>
-  </si>
-  <si>
-    <t>Procedure</t>
-  </si>
-  <si>
-    <t>PROCEDURE</t>
-  </si>
-  <si>
-    <t>IV.1</t>
-  </si>
-  <si>
-    <t>IV.1.0</t>
-  </si>
-  <si>
-    <t>epo:Procedure / xsd:boolean</t>
-  </si>
-  <si>
+      <t>?this</t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>?this</t>
+      <t xml:space="preserve"> epo:isFundedBy / epo:hasDescription ?</t>
     </r>
     <r>
       <rPr>
@@ -2363,15 +2318,35 @@
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve"> epo:isDesignContest </t>
-    </r>
+      <t>value .</t>
+    </r>
+  </si>
+  <si>
+    <t>Section IV</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
+    <t>IV.1</t>
+  </si>
+  <si>
+    <t>IV.1.0</t>
+  </si>
+  <si>
+    <t>epo:Procedure / xsd:boolean</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>true</t>
+      <t>?this</t>
     </r>
     <r>
       <rPr>
@@ -2379,7 +2354,23 @@
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>.</t>
+      <t xml:space="preserve"> epo:foreseesContractSpecificTerm / epo:hasOptions </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
     </r>
   </si>
   <si>
@@ -2489,7 +2480,7 @@
     <t>no match</t>
   </si>
   <si>
-    <t>PROCEDURE/CRITERIA_EVALUATION/P</t>
+    <t>PROCEDURE/CRITERIA_EVALUATION</t>
   </si>
   <si>
     <t>IV.1.9.0</t>
@@ -2728,6 +2719,9 @@
   </si>
   <si>
     <t>?this epo:summarisesInformationForLotAwardOutcome ?value .</t>
+  </si>
+  <si>
+    <t>iss_gh_map237_submissionStatInfo_relations.ask.rq</t>
   </si>
   <si>
     <t>V.3.2.0</t>
@@ -2817,7 +2811,8 @@
     <t>BT-768</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/AWARDED_TO_GROUP</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/AWARDED_TO_GROUP
+AWARD_CONTRACT/AWARDED_CONTRACT/AWARDED_TO_GROUP</t>
   </si>
   <si>
     <t>V.3.3</t>
@@ -4649,7 +4644,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -4707,12 +4702,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF999999"/>
+      <b/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FF000000"/>
+      <color rgb="FF999999"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -4785,6 +4780,10 @@
       <color rgb="FF999999"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
@@ -4987,7 +4986,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5211,17 +5210,17 @@
     <xf borderId="0" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -5232,7 +5231,7 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5245,13 +5244,13 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="8" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5281,7 +5280,7 @@
     <xf borderId="0" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5354,16 +5353,16 @@
     <xf borderId="0" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
@@ -5412,6 +5411,9 @@
     <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5421,10 +5423,10 @@
     <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -5433,10 +5435,10 @@
     <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -9002,7 +9004,9 @@
       <c r="H5" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="7"/>
       <c r="L5" s="28"/>
@@ -9015,28 +9019,30 @@
     </row>
     <row r="6">
       <c r="A6" s="43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="7"/>
       <c r="L6" s="28"/>
@@ -9049,26 +9055,26 @@
     </row>
     <row r="7">
       <c r="A7" s="45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -9083,26 +9089,26 @@
     </row>
     <row r="8">
       <c r="A8" s="47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -9117,28 +9123,28 @@
     </row>
     <row r="9">
       <c r="A9" s="47" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -9153,26 +9159,26 @@
     </row>
     <row r="10">
       <c r="A10" s="47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -9187,26 +9193,26 @@
     </row>
     <row r="11">
       <c r="A11" s="43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -9221,28 +9227,30 @@
     </row>
     <row r="12">
       <c r="A12" s="47" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="7"/>
       <c r="L12" s="28"/>
@@ -9255,26 +9263,26 @@
     </row>
     <row r="13">
       <c r="A13" s="47" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -9289,26 +9297,26 @@
     </row>
     <row r="14">
       <c r="A14" s="45" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="35" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -9323,26 +9331,26 @@
     </row>
     <row r="15">
       <c r="A15" s="47" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -9357,10 +9365,10 @@
     </row>
     <row r="16">
       <c r="A16" s="45" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -9381,26 +9389,26 @@
     </row>
     <row r="17">
       <c r="A17" s="50" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="44" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -9415,26 +9423,26 @@
     </row>
     <row r="18">
       <c r="A18" s="53" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -9473,20 +9481,20 @@
     </row>
     <row r="20">
       <c r="A20" s="36" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B20" s="37"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -9509,7 +9517,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="55" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="39" t="s">
@@ -9543,16 +9551,18 @@
         <v>54</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="42" t="s">
         <v>56</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="I22" s="44"/>
+        <v>148</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>58</v>
+      </c>
       <c r="J22" s="44"/>
       <c r="K22" s="56"/>
       <c r="L22" s="28"/>
@@ -9565,28 +9575,30 @@
     </row>
     <row r="23">
       <c r="A23" s="43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F23" s="44"/>
       <c r="G23" s="44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="I23" s="42"/>
+        <v>150</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>66</v>
+      </c>
       <c r="J23" s="42"/>
       <c r="K23" s="56"/>
       <c r="L23" s="57"/>
@@ -9607,26 +9619,26 @@
     </row>
     <row r="24">
       <c r="A24" s="45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -9649,26 +9661,26 @@
     </row>
     <row r="25">
       <c r="A25" s="47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -9683,28 +9695,28 @@
     </row>
     <row r="26">
       <c r="A26" s="47" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H26" s="48" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -9719,26 +9731,26 @@
     </row>
     <row r="27">
       <c r="A27" s="47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -9753,26 +9765,26 @@
     </row>
     <row r="28">
       <c r="A28" s="43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="42" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H28" s="42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="42"/>
@@ -9787,28 +9799,30 @@
     </row>
     <row r="29">
       <c r="A29" s="47" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H29" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="I29" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="J29" s="4"/>
       <c r="K29" s="7"/>
       <c r="L29" s="57"/>
@@ -9829,26 +9843,26 @@
     </row>
     <row r="30">
       <c r="A30" s="47" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H30" s="49" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -9863,26 +9877,26 @@
     </row>
     <row r="31">
       <c r="A31" s="45" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="35" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H31" s="48" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -9897,26 +9911,26 @@
     </row>
     <row r="32">
       <c r="A32" s="47" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H32" s="48" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -9931,10 +9945,10 @@
     </row>
     <row r="33">
       <c r="A33" s="45" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -9955,28 +9969,28 @@
     </row>
     <row r="34">
       <c r="A34" s="50" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="44" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="I34" s="42"/>
+        <v>171</v>
+      </c>
+      <c r="I34" s="4"/>
       <c r="J34" s="42"/>
       <c r="K34" s="56"/>
       <c r="L34" s="28"/>
@@ -9989,26 +10003,26 @@
     </row>
     <row r="35">
       <c r="A35" s="53" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B35" s="54" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H35" s="59" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -10031,10 +10045,10 @@
     </row>
     <row r="36">
       <c r="A36" s="36" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -10055,22 +10069,22 @@
     </row>
     <row r="37">
       <c r="A37" s="45" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="61" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F37" s="62"/>
       <c r="G37" s="14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H37" s="59" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -10085,28 +10099,30 @@
     </row>
     <row r="38">
       <c r="A38" s="53" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B38" s="54" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="35" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H38" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="I38" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="28"/>
@@ -10119,22 +10135,22 @@
     </row>
     <row r="39">
       <c r="A39" s="40" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C39" s="44"/>
       <c r="D39" s="44"/>
       <c r="E39" s="63" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F39" s="42"/>
       <c r="G39" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -10149,31 +10165,31 @@
     </row>
     <row r="40">
       <c r="A40" s="36" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D40" s="65" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F40" s="65"/>
       <c r="G40" s="65" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H40" s="66" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L40" s="57"/>
       <c r="M40" s="57"/>
@@ -10193,20 +10209,20 @@
     </row>
     <row r="41">
       <c r="A41" s="47" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B41" s="46"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="39" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F41" s="39"/>
       <c r="G41" s="39" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H41" s="39" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -10221,31 +10237,31 @@
     </row>
     <row r="42">
       <c r="A42" s="36" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D42" s="65" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E42" s="55" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F42" s="65"/>
       <c r="G42" s="67" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H42" s="68" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L42" s="28"/>
       <c r="M42" s="28"/>
@@ -10257,20 +10273,20 @@
     </row>
     <row r="43">
       <c r="A43" s="47" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B43" s="46"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="39" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F43" s="39"/>
       <c r="G43" s="39" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -10285,26 +10301,26 @@
     </row>
     <row r="44">
       <c r="A44" s="36" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C44" s="65" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D44" s="65" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E44" s="55" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F44" s="65"/>
       <c r="G44" s="69" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H44" s="69" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -10319,20 +10335,20 @@
     </row>
     <row r="45">
       <c r="A45" s="45" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B45" s="70"/>
       <c r="C45" s="71"/>
       <c r="D45" s="71"/>
       <c r="E45" s="39" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F45" s="71"/>
       <c r="G45" s="39" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H45" s="39" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -10347,10 +10363,10 @@
     </row>
     <row r="46">
       <c r="A46" s="33" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B46" s="72" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -10371,10 +10387,10 @@
     </row>
     <row r="47">
       <c r="A47" s="36" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -10395,33 +10411,31 @@
     </row>
     <row r="48">
       <c r="A48" s="45" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B48" s="46" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>229</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="J48" s="4"/>
       <c r="K48" s="7"/>
       <c r="L48" s="28"/>
       <c r="M48" s="28"/>
@@ -10433,30 +10447,32 @@
     </row>
     <row r="49">
       <c r="A49" s="50" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B49" s="51" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F49" s="44"/>
       <c r="G49" s="44" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="I49" s="56"/>
+        <v>238</v>
+      </c>
+      <c r="I49" s="62" t="s">
+        <v>66</v>
+      </c>
       <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
+      <c r="K49" s="7"/>
       <c r="L49" s="57"/>
       <c r="M49" s="57"/>
       <c r="N49" s="57"/>
@@ -10475,26 +10491,26 @@
     </row>
     <row r="50">
       <c r="A50" s="47" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B50" s="46" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H50" s="39" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -10509,26 +10525,26 @@
     </row>
     <row r="51">
       <c r="A51" s="53" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B51" s="54" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -10543,7 +10559,7 @@
     </row>
     <row r="52">
       <c r="A52" s="36" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B52" s="37" t="s">
         <v>8</v>
@@ -10551,14 +10567,14 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="55" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -10573,7 +10589,7 @@
     </row>
     <row r="53">
       <c r="A53" s="73" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B53" s="74" t="s">
         <v>8</v>
@@ -10581,14 +10597,14 @@
       <c r="C53" s="4"/>
       <c r="D53" s="7"/>
       <c r="E53" s="55" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="39" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H53" s="39" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -10603,10 +10619,10 @@
     </row>
     <row r="54">
       <c r="A54" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -10627,26 +10643,26 @@
     </row>
     <row r="55">
       <c r="A55" s="53" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -10661,26 +10677,26 @@
     </row>
     <row r="56">
       <c r="A56" s="53" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B56" s="54" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -10695,28 +10711,30 @@
     </row>
     <row r="57">
       <c r="A57" s="45" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B57" s="46" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D57" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H57" s="75" t="s">
-        <v>270</v>
-      </c>
-      <c r="I57" s="7"/>
+        <v>272</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="28"/>
@@ -10729,10 +10747,10 @@
     </row>
     <row r="58">
       <c r="A58" s="47" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B58" s="46" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -10753,26 +10771,26 @@
     </row>
     <row r="59">
       <c r="A59" s="76" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F59" s="38"/>
       <c r="G59" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="H59" s="49" t="s">
-        <v>279</v>
+        <v>280</v>
+      </c>
+      <c r="H59" s="77" t="s">
+        <v>281</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -10786,27 +10804,27 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="77" t="s">
-        <v>273</v>
-      </c>
-      <c r="B60" s="78" t="s">
-        <v>274</v>
-      </c>
-      <c r="C60" s="79" t="s">
+      <c r="A60" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="D60" s="80" t="s">
+      <c r="B60" s="79" t="s">
         <v>276</v>
       </c>
+      <c r="C60" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="D60" s="81" t="s">
+        <v>278</v>
+      </c>
       <c r="E60" s="48" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F60" s="38"/>
       <c r="G60" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="H60" s="49" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="H60" s="77" t="s">
+        <v>283</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -10821,28 +10839,30 @@
     </row>
     <row r="61">
       <c r="A61" s="76" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B61" s="54" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D61" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="E61" s="48" t="s">
-        <v>286</v>
+        <v>287</v>
+      </c>
+      <c r="E61" s="55" t="s">
+        <v>279</v>
       </c>
       <c r="F61" s="59"/>
       <c r="G61" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="H61" s="81" t="s">
         <v>288</v>
       </c>
-      <c r="I61" s="7"/>
+      <c r="H61" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="28"/>
@@ -10855,15 +10875,15 @@
     </row>
     <row r="62">
       <c r="A62" s="82" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="38" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="39"/>
@@ -10881,7 +10901,7 @@
     </row>
     <row r="63">
       <c r="A63" s="83" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B63" s="37" t="s">
         <v>8</v>
@@ -10905,20 +10925,20 @@
     </row>
     <row r="64">
       <c r="A64" s="47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B64" s="46"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="55" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F64" s="71"/>
       <c r="G64" s="39" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H64" s="84" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
@@ -10933,10 +10953,10 @@
     </row>
     <row r="65">
       <c r="A65" s="47" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
@@ -10957,26 +10977,26 @@
     </row>
     <row r="66">
       <c r="A66" s="76" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B66" s="54" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E66" s="55" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F66" s="48"/>
       <c r="G66" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H66" s="85" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -10991,26 +11011,26 @@
     </row>
     <row r="67">
       <c r="A67" s="76" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B67" s="54" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E67" s="55" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F67" s="48"/>
       <c r="G67" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H67" s="85" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -11025,17 +11045,17 @@
     </row>
     <row r="68">
       <c r="A68" s="45" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B68" s="46" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C68" s="71" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D68" s="71"/>
       <c r="E68" s="86" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F68" s="86"/>
       <c r="G68" s="86"/>
@@ -11053,10 +11073,10 @@
     </row>
     <row r="69">
       <c r="A69" s="53" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B69" s="54" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C69" s="87"/>
       <c r="D69" s="87"/>
@@ -11067,7 +11087,7 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L69" s="28"/>
       <c r="M69" s="28"/>
@@ -11079,10 +11099,10 @@
     </row>
     <row r="70">
       <c r="A70" s="83" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -11103,24 +11123,26 @@
     </row>
     <row r="71">
       <c r="A71" s="47" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B71" s="46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="48" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F71" s="35"/>
       <c r="G71" s="48" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H71" s="88" t="s">
-        <v>322</v>
-      </c>
-      <c r="I71" s="7"/>
+        <v>323</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="28"/>
@@ -11133,15 +11155,15 @@
     </row>
     <row r="72">
       <c r="A72" s="82" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="71" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F72" s="86"/>
       <c r="G72" s="39"/>
@@ -11159,19 +11181,19 @@
     </row>
     <row r="73">
       <c r="A73" s="47" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B73" s="46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C73" s="48" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D73" s="48" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E73" s="39" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F73" s="86"/>
       <c r="G73" s="39"/>
@@ -11189,19 +11211,19 @@
     </row>
     <row r="74">
       <c r="A74" s="89" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B74" s="90" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C74" s="91" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D74" s="91" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E74" s="55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F74" s="71"/>
       <c r="G74" s="39"/>
@@ -11219,19 +11241,19 @@
     </row>
     <row r="75">
       <c r="A75" s="89" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B75" s="90" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C75" s="91" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D75" s="91" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E75" s="71" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F75" s="71"/>
       <c r="G75" s="39"/>
@@ -11249,13 +11271,13 @@
     </row>
     <row r="76">
       <c r="A76" s="83" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C76" s="92" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D76" s="48"/>
       <c r="E76" s="4"/>
@@ -11275,13 +11297,13 @@
     </row>
     <row r="77">
       <c r="A77" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="B77" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="C77" s="92" t="s">
         <v>335</v>
-      </c>
-      <c r="B77" s="46" t="s">
-        <v>336</v>
-      </c>
-      <c r="C77" s="92" t="s">
-        <v>334</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -11301,26 +11323,26 @@
     </row>
     <row r="78">
       <c r="A78" s="76" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B78" s="54" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C78" s="48" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D78" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E78" s="48" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F78" s="48"/>
       <c r="G78" s="39" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H78" s="93" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
@@ -11335,26 +11357,26 @@
     </row>
     <row r="79">
       <c r="A79" s="76" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B79" s="54" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C79" s="48" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D79" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E79" s="48" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F79" s="48"/>
       <c r="G79" s="39" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H79" s="93" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
@@ -11369,24 +11391,24 @@
     </row>
     <row r="80">
       <c r="A80" s="76" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B80" s="54" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C80" s="94" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D80" s="48"/>
       <c r="E80" s="39" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F80" s="39"/>
       <c r="G80" s="39" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H80" s="95" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
@@ -11401,13 +11423,13 @@
     </row>
     <row r="81">
       <c r="A81" s="83" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C81" s="96" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="35"/>
@@ -11427,20 +11449,20 @@
     </row>
     <row r="82">
       <c r="A82" s="76" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B82" s="97"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="39" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H82" s="39" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
@@ -11455,20 +11477,20 @@
     </row>
     <row r="83">
       <c r="A83" s="76" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B83" s="97"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="39" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H83" s="93" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
@@ -11483,26 +11505,26 @@
     </row>
     <row r="84">
       <c r="A84" s="47" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B84" s="46" t="s">
-        <v>362</v>
-      </c>
-      <c r="C84" s="46" t="s">
         <v>363</v>
       </c>
-      <c r="D84" s="46" t="s">
+      <c r="C84" s="4" t="s">
         <v>364</v>
       </c>
+      <c r="D84" s="4" t="s">
+        <v>365</v>
+      </c>
       <c r="E84" s="38" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="39" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H84" s="93" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
@@ -11517,24 +11539,26 @@
     </row>
     <row r="85">
       <c r="A85" s="47" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B85" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
+        <v>370</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
       <c r="E85" s="55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="48" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H85" s="35" t="s">
-        <v>371</v>
-      </c>
-      <c r="I85" s="7"/>
+        <v>372</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>373</v>
+      </c>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
       <c r="L85" s="28"/>
@@ -11547,10 +11571,10 @@
     </row>
     <row r="86">
       <c r="A86" s="76" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B86" s="97" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -11561,7 +11585,7 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L86" s="28"/>
       <c r="M86" s="28"/>
@@ -11573,26 +11597,26 @@
     </row>
     <row r="87">
       <c r="A87" s="76" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B87" s="54" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C87" s="71" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D87" s="71" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E87" s="98" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F87" s="98"/>
       <c r="G87" s="98" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H87" s="99" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
@@ -11600,22 +11624,22 @@
     </row>
     <row r="88">
       <c r="A88" s="76" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B88" s="54" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C88" s="71"/>
       <c r="D88" s="71"/>
       <c r="E88" s="39" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F88" s="39"/>
       <c r="G88" s="39" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H88" s="93" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
@@ -11623,47 +11647,47 @@
     </row>
     <row r="89">
       <c r="A89" s="76" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B89" s="54" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C89" s="71"/>
       <c r="D89" s="71"/>
       <c r="E89" s="39" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F89" s="39"/>
       <c r="G89" s="39" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H89" s="39" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
     </row>
     <row r="90">
-      <c r="A90" s="77" t="s">
-        <v>389</v>
-      </c>
-      <c r="B90" s="78" t="s">
-        <v>390</v>
+      <c r="A90" s="78" t="s">
+        <v>391</v>
+      </c>
+      <c r="B90" s="79" t="s">
+        <v>392</v>
       </c>
       <c r="C90" s="100" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D90" s="71"/>
       <c r="E90" s="101" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F90" s="71"/>
       <c r="G90" s="39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H90" s="71" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
@@ -11671,13 +11695,13 @@
     </row>
     <row r="91">
       <c r="A91" s="47" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B91" s="46" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C91" s="102" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D91" s="59"/>
       <c r="E91" s="38"/>
@@ -11690,10 +11714,10 @@
     </row>
     <row r="92">
       <c r="A92" s="76" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B92" s="97" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -11704,12 +11728,12 @@
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="76" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B93" s="54" t="s">
         <v>52</v>
@@ -11721,68 +11745,72 @@
         <v>54</v>
       </c>
       <c r="E93" s="98" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F93" s="98"/>
       <c r="G93" s="103" t="s">
         <v>56</v>
       </c>
       <c r="H93" s="103" t="s">
-        <v>398</v>
-      </c>
-      <c r="I93" s="7"/>
+        <v>400</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
     </row>
     <row r="94">
       <c r="A94" s="76" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B94" s="54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C94" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D94" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E94" s="48" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F94" s="48"/>
       <c r="G94" s="44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H94" s="44" t="s">
-        <v>401</v>
-      </c>
-      <c r="I94" s="7"/>
+        <v>403</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
     </row>
     <row r="95">
       <c r="A95" s="76" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B95" s="54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D95" s="48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E95" s="48" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F95" s="48"/>
       <c r="G95" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H95" s="104" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
@@ -11790,26 +11818,26 @@
     </row>
     <row r="96">
       <c r="A96" s="76" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B96" s="54" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C96" s="35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D96" s="48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E96" s="48" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F96" s="48"/>
       <c r="G96" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H96" s="104" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
@@ -11817,28 +11845,28 @@
     </row>
     <row r="97">
       <c r="A97" s="76" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B97" s="54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C97" s="35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D97" s="48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E97" s="38" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F97" s="38" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G97" s="35" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H97" s="48" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
@@ -11846,26 +11874,26 @@
     </row>
     <row r="98">
       <c r="A98" s="76" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B98" s="54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D98" s="48" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E98" s="48" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F98" s="48"/>
       <c r="G98" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H98" s="38" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
@@ -11873,26 +11901,26 @@
     </row>
     <row r="99">
       <c r="A99" s="76" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B99" s="54" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D99" s="48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E99" s="48" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F99" s="48"/>
       <c r="G99" s="42" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H99" s="42" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
@@ -11900,26 +11928,26 @@
     </row>
     <row r="100">
       <c r="A100" s="76" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B100" s="54" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C100" s="35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D100" s="48" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E100" s="48" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F100" s="48"/>
       <c r="G100" s="48" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H100" s="48" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
@@ -11927,26 +11955,26 @@
     </row>
     <row r="101">
       <c r="A101" s="76" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B101" s="54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D101" s="48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E101" s="48" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F101" s="48"/>
       <c r="G101" s="48" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H101" s="48" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
@@ -11954,26 +11982,26 @@
     </row>
     <row r="102">
       <c r="A102" s="76" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B102" s="54" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C102" s="48" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D102" s="48" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E102" s="48" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F102" s="48"/>
       <c r="G102" s="44" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H102" s="105" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
@@ -11981,26 +12009,26 @@
     </row>
     <row r="103">
       <c r="A103" s="76" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B103" s="54" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C103" s="35" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D103" s="48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E103" s="48" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F103" s="48"/>
       <c r="G103" s="48" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H103" s="106" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
@@ -12008,26 +12036,26 @@
     </row>
     <row r="104">
       <c r="A104" s="76" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B104" s="54" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D104" s="48" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E104" s="48" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F104" s="38"/>
       <c r="G104" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H104" s="107" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
@@ -12035,26 +12063,26 @@
     </row>
     <row r="105">
       <c r="A105" s="76" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B105" s="54" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C105" s="35" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D105" s="48" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E105" s="55" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H105" s="107" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
@@ -12062,13 +12090,13 @@
     </row>
     <row r="106">
       <c r="A106" s="47" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B106" s="46" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C106" s="92" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D106" s="59"/>
       <c r="E106" s="14"/>
@@ -12081,10 +12109,10 @@
     </row>
     <row r="107">
       <c r="A107" s="76" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B107" s="97" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -12095,31 +12123,31 @@
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="76" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B108" s="54" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E108" s="48" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F108" s="48"/>
       <c r="G108" s="39" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H108" s="39" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
@@ -12127,24 +12155,24 @@
     </row>
     <row r="109">
       <c r="A109" s="108" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B109" s="109" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C109" s="110" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D109" s="59"/>
       <c r="E109" s="59" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F109" s="59"/>
       <c r="G109" s="98" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H109" s="99" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
@@ -12152,10 +12180,10 @@
     </row>
     <row r="110">
       <c r="A110" s="82" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B110" s="34" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -12169,40 +12197,42 @@
     </row>
     <row r="111">
       <c r="A111" s="83" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B111" s="37" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C111" s="48" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E111" s="111" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F111" s="111"/>
       <c r="G111" s="112" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H111" s="113" t="s">
-        <v>465</v>
-      </c>
-      <c r="I111" s="7"/>
+        <v>467</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
     </row>
     <row r="112">
       <c r="A112" s="83" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B112" s="37" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C112" s="102" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="114"/>
@@ -12215,24 +12245,24 @@
     </row>
     <row r="113">
       <c r="A113" s="47" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B113" s="46" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C113" s="115" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="38" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F113" s="48"/>
       <c r="G113" s="35" t="s">
         <v>49</v>
       </c>
       <c r="H113" s="116" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
@@ -12240,7 +12270,7 @@
     </row>
     <row r="114">
       <c r="A114" s="76" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B114" s="54" t="s">
         <v>52</v>
@@ -12252,41 +12282,43 @@
         <v>54</v>
       </c>
       <c r="E114" s="48" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F114" s="48"/>
       <c r="G114" s="38" t="s">
         <v>56</v>
       </c>
       <c r="H114" s="38" t="s">
-        <v>474</v>
-      </c>
-      <c r="I114" s="7"/>
+        <v>476</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
     </row>
     <row r="115">
       <c r="A115" s="76" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B115" s="54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C115" s="48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D115" s="48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E115" s="48" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F115" s="48"/>
       <c r="G115" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H115" s="38" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
@@ -12294,26 +12326,26 @@
     </row>
     <row r="116">
       <c r="A116" s="76" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B116" s="54" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C116" s="59" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D116" s="59" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E116" s="111" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F116" s="111"/>
       <c r="G116" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H116" s="117" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
@@ -12321,26 +12353,26 @@
     </row>
     <row r="117">
       <c r="A117" s="76" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B117" s="54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C117" s="48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D117" s="48" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E117" s="111" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F117" s="111"/>
       <c r="G117" s="38" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H117" s="38" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
@@ -12348,26 +12380,26 @@
     </row>
     <row r="118">
       <c r="A118" s="76" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B118" s="54" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C118" s="48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D118" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E118" s="59" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F118" s="59"/>
       <c r="G118" s="59" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H118" s="59" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
@@ -12375,26 +12407,26 @@
     </row>
     <row r="119">
       <c r="A119" s="76" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B119" s="54" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C119" s="48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D119" s="48" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E119" s="48" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F119" s="48"/>
       <c r="G119" s="48" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H119" s="48" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
@@ -12402,26 +12434,26 @@
     </row>
     <row r="120">
       <c r="A120" s="76" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B120" s="54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C120" s="59" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D120" s="59" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E120" s="111" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F120" s="111"/>
       <c r="G120" s="48" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H120" s="48" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
@@ -12429,26 +12461,26 @@
     </row>
     <row r="121">
       <c r="A121" s="76" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B121" s="54" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C121" s="59" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D121" s="59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E121" s="111" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F121" s="48"/>
       <c r="G121" s="44" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H121" s="44" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
@@ -12456,26 +12488,26 @@
     </row>
     <row r="122">
       <c r="A122" s="76" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B122" s="54" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C122" s="59" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D122" s="59" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E122" s="111" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F122" s="111"/>
       <c r="G122" s="48" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H122" s="48" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
@@ -12483,24 +12515,24 @@
     </row>
     <row r="123">
       <c r="A123" s="47" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B123" s="46" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C123" s="118" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D123" s="119"/>
       <c r="E123" s="120" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F123" s="111"/>
       <c r="G123" s="35" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H123" s="35" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
@@ -12508,7 +12540,7 @@
     </row>
     <row r="124">
       <c r="A124" s="76" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B124" s="54" t="s">
         <v>52</v>
@@ -12520,41 +12552,43 @@
         <v>54</v>
       </c>
       <c r="E124" s="48" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F124" s="48"/>
       <c r="G124" s="38" t="s">
         <v>56</v>
       </c>
       <c r="H124" s="38" t="s">
-        <v>503</v>
-      </c>
-      <c r="I124" s="7"/>
+        <v>505</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
     </row>
     <row r="125">
       <c r="A125" s="76" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B125" s="54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C125" s="59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D125" s="59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E125" s="48" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F125" s="48"/>
       <c r="G125" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H125" s="38" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
@@ -12562,26 +12596,26 @@
     </row>
     <row r="126">
       <c r="A126" s="76" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B126" s="54" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C126" s="59" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D126" s="59" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E126" s="111" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F126" s="111"/>
       <c r="G126" s="117" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H126" s="117" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
@@ -12589,26 +12623,26 @@
     </row>
     <row r="127">
       <c r="A127" s="76" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B127" s="54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C127" s="59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D127" s="59" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E127" s="111" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F127" s="111"/>
       <c r="G127" s="38" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H127" s="38" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
@@ -12616,26 +12650,26 @@
     </row>
     <row r="128">
       <c r="A128" s="76" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B128" s="54" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C128" s="59" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D128" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E128" s="48" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F128" s="48"/>
       <c r="G128" s="38" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H128" s="104" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
@@ -12643,26 +12677,26 @@
     </row>
     <row r="129">
       <c r="A129" s="76" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B129" s="54" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C129" s="59" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D129" s="59" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E129" s="48" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F129" s="48"/>
       <c r="G129" s="48" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H129" s="106" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
@@ -12670,26 +12704,26 @@
     </row>
     <row r="130">
       <c r="A130" s="76" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B130" s="54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C130" s="59" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D130" s="59" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E130" s="48" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F130" s="48"/>
       <c r="G130" s="48" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H130" s="106" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
@@ -12697,26 +12731,26 @@
     </row>
     <row r="131">
       <c r="A131" s="76" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B131" s="54" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C131" s="59" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D131" s="59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E131" s="59" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F131" s="59"/>
       <c r="G131" s="121" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H131" s="121" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
@@ -12724,26 +12758,26 @@
     </row>
     <row r="132">
       <c r="A132" s="76" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B132" s="54" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C132" s="59" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D132" s="59" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E132" s="48" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F132" s="48"/>
       <c r="G132" s="48" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H132" s="48" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
@@ -12751,26 +12785,26 @@
     </row>
     <row r="133">
       <c r="A133" s="47" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B133" s="46" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C133" s="59" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D133" s="59" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E133" s="48" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F133" s="48"/>
       <c r="G133" s="38" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H133" s="35" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
@@ -12778,22 +12812,22 @@
     </row>
     <row r="134">
       <c r="A134" s="47" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B134" s="46" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="38" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F134" s="48"/>
       <c r="G134" s="35" t="s">
         <v>49</v>
       </c>
       <c r="H134" s="35" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
@@ -12801,7 +12835,7 @@
     </row>
     <row r="135">
       <c r="A135" s="76" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B135" s="54" t="s">
         <v>52</v>
@@ -12813,41 +12847,43 @@
         <v>54</v>
       </c>
       <c r="E135" s="48" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F135" s="48"/>
       <c r="G135" s="38" t="s">
         <v>56</v>
       </c>
       <c r="H135" s="38" t="s">
-        <v>537</v>
-      </c>
-      <c r="I135" s="7"/>
+        <v>539</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
     </row>
     <row r="136">
       <c r="A136" s="76" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B136" s="54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C136" s="59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D136" s="59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E136" s="48" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F136" s="48"/>
       <c r="G136" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H136" s="38" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
@@ -12855,26 +12891,26 @@
     </row>
     <row r="137">
       <c r="A137" s="76" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B137" s="54" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C137" s="59" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D137" s="59" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E137" s="48" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F137" s="48"/>
       <c r="G137" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H137" s="38" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
@@ -12882,26 +12918,26 @@
     </row>
     <row r="138">
       <c r="A138" s="76" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B138" s="54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C138" s="59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D138" s="59" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E138" s="48" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F138" s="48"/>
       <c r="G138" s="38" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H138" s="38" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
@@ -12909,26 +12945,26 @@
     </row>
     <row r="139">
       <c r="A139" s="76" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B139" s="54" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C139" s="59" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D139" s="59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E139" s="48" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F139" s="48"/>
       <c r="G139" s="48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H139" s="48" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
@@ -12936,26 +12972,26 @@
     </row>
     <row r="140">
       <c r="A140" s="76" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B140" s="54" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C140" s="59" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D140" s="59" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E140" s="48" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F140" s="48"/>
       <c r="G140" s="48" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H140" s="48" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
@@ -12963,26 +12999,26 @@
     </row>
     <row r="141">
       <c r="A141" s="76" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B141" s="54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C141" s="48" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D141" s="59" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E141" s="48" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F141" s="48"/>
       <c r="G141" s="48" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H141" s="48" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
@@ -12990,26 +13026,26 @@
     </row>
     <row r="142">
       <c r="A142" s="76" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B142" s="54" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C142" s="59" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D142" s="59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E142" s="48" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F142" s="59"/>
       <c r="G142" s="44" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H142" s="44" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
@@ -13017,26 +13053,26 @@
     </row>
     <row r="143">
       <c r="A143" s="76" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B143" s="54" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C143" s="59" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D143" s="59" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E143" s="48" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F143" s="48"/>
       <c r="G143" s="48" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H143" s="48" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
@@ -13044,26 +13080,26 @@
     </row>
     <row r="144">
       <c r="A144" s="83" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B144" s="37" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C144" s="122" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D144" s="122" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E144" s="35" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F144" s="35"/>
       <c r="G144" s="38" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H144" s="123" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
@@ -13176,70 +13212,70 @@
     </row>
     <row r="2">
       <c r="A2" s="125" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
       <c r="E2" s="39" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="126" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B3" s="127" t="s">
-        <v>327</v>
-      </c>
-      <c r="C3" s="80" t="s">
         <v>328</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="C3" s="81" t="s">
         <v>329</v>
       </c>
+      <c r="D3" s="81" t="s">
+        <v>330</v>
+      </c>
       <c r="E3" s="128" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F3" s="129" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="125" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B4" s="98" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C4" s="86"/>
       <c r="D4" s="86"/>
       <c r="E4" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="F4" s="39" t="s">
         <v>570</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="125" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B5" s="98" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C5" s="86"/>
       <c r="D5" s="86"/>
       <c r="E5" s="39" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G5" s="130"/>
       <c r="H5" s="130"/>
@@ -13264,18 +13300,18 @@
     </row>
     <row r="6">
       <c r="A6" s="125" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C6" s="86"/>
       <c r="D6" s="86"/>
       <c r="E6" s="39" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G6" s="130"/>
       <c r="H6" s="130"/>
@@ -13300,22 +13336,22 @@
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8">
@@ -17320,36 +17356,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="131" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B2" s="132" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="133" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B3" s="132" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="134" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="135" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B6" s="132" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="132" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8">
@@ -17360,41 +17396,41 @@
     </row>
     <row r="10">
       <c r="A10" s="135" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="135" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B11" s="136" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="137" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="138"/>
       <c r="B13" s="139" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="140" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="141" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="142" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17">
@@ -17403,24 +17439,24 @@
     </row>
     <row r="18">
       <c r="A18" s="135" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B18" s="143" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B19" s="144"/>
     </row>
     <row r="21">
       <c r="A21" s="135" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B21" s="145" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -17446,62 +17482,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="35" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>603</v>
+      <c r="A7" s="146" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="35" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>605</v>
+      <c r="A9" s="146" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -17527,59 +17563,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B1" s="146" t="s">
-        <v>609</v>
+        <v>599</v>
+      </c>
+      <c r="B1" s="147" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="147" t="s">
-        <v>617</v>
+      <c r="A8" s="148" t="s">
+        <v>619</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="148" t="s">
-        <v>618</v>
+      <c r="A9" s="149" t="s">
+        <v>620</v>
       </c>
       <c r="B9" s="7"/>
     </row>
@@ -17623,11 +17659,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="149" t="s">
-        <v>619</v>
-      </c>
-      <c r="C1" s="149" t="s">
-        <v>620</v>
+      <c r="A1" s="150" t="s">
+        <v>621</v>
+      </c>
+      <c r="C1" s="150" t="s">
+        <v>622</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -17654,16 +17690,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -17690,13 +17726,13 @@
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -17727,13 +17763,13 @@
     </row>
     <row r="4">
       <c r="A4" s="38" t="s">
+        <v>630</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>628</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>626</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -17764,13 +17800,13 @@
     </row>
     <row r="5">
       <c r="A5" s="38" t="s">
+        <v>631</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>632</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>629</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>630</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>627</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -17798,16 +17834,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -17834,16 +17870,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="D7" s="150" t="s">
-        <v>636</v>
+        <v>629</v>
+      </c>
+      <c r="D7" s="151" t="s">
+        <v>638</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -17870,16 +17906,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -17905,161 +17941,161 @@
       <c r="Z8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="151" t="s">
-        <v>640</v>
-      </c>
-      <c r="B9" s="152" t="s">
-        <v>641</v>
-      </c>
-      <c r="C9" s="152" t="s">
-        <v>627</v>
-      </c>
-      <c r="D9" s="152" t="s">
+      <c r="A9" s="152" t="s">
         <v>642</v>
       </c>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="152"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="152"/>
-      <c r="Y9" s="152"/>
-      <c r="Z9" s="152"/>
+      <c r="B9" s="153" t="s">
+        <v>643</v>
+      </c>
+      <c r="C9" s="153" t="s">
+        <v>629</v>
+      </c>
+      <c r="D9" s="153" t="s">
+        <v>644</v>
+      </c>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="153"/>
+      <c r="R9" s="153"/>
+      <c r="S9" s="153"/>
+      <c r="T9" s="153"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="153"/>
+      <c r="W9" s="153"/>
+      <c r="X9" s="153"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="153"/>
     </row>
     <row r="10">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="152" t="s">
+        <v>645</v>
+      </c>
+      <c r="B10" s="153" t="s">
         <v>643</v>
       </c>
-      <c r="B10" s="152" t="s">
-        <v>641</v>
-      </c>
-      <c r="C10" s="152" t="s">
-        <v>627</v>
-      </c>
-      <c r="D10" s="152" t="s">
-        <v>644</v>
-      </c>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
-      <c r="R10" s="152"/>
-      <c r="S10" s="152"/>
-      <c r="T10" s="152"/>
-      <c r="U10" s="152"/>
-      <c r="V10" s="152"/>
-      <c r="W10" s="152"/>
-      <c r="X10" s="152"/>
-      <c r="Y10" s="152"/>
-      <c r="Z10" s="152"/>
+      <c r="C10" s="153" t="s">
+        <v>629</v>
+      </c>
+      <c r="D10" s="153" t="s">
+        <v>646</v>
+      </c>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="153"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="153"/>
+      <c r="T10" s="153"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="153"/>
+      <c r="X10" s="153"/>
+      <c r="Y10" s="153"/>
+      <c r="Z10" s="153"/>
     </row>
     <row r="11">
-      <c r="A11" s="151" t="s">
-        <v>645</v>
-      </c>
-      <c r="B11" s="152" t="s">
-        <v>646</v>
-      </c>
-      <c r="C11" s="152" t="s">
-        <v>627</v>
-      </c>
-      <c r="D11" s="152" t="s">
+      <c r="A11" s="152" t="s">
         <v>647</v>
       </c>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="152"/>
-      <c r="S11" s="152"/>
-      <c r="T11" s="152"/>
-      <c r="U11" s="152"/>
-      <c r="V11" s="152"/>
-      <c r="W11" s="152"/>
-      <c r="X11" s="152"/>
-      <c r="Y11" s="152"/>
-      <c r="Z11" s="152"/>
+      <c r="B11" s="153" t="s">
+        <v>648</v>
+      </c>
+      <c r="C11" s="153" t="s">
+        <v>629</v>
+      </c>
+      <c r="D11" s="153" t="s">
+        <v>649</v>
+      </c>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="153"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="153"/>
+      <c r="M11" s="153"/>
+      <c r="N11" s="153"/>
+      <c r="O11" s="153"/>
+      <c r="P11" s="153"/>
+      <c r="Q11" s="153"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="153"/>
+      <c r="T11" s="153"/>
+      <c r="U11" s="153"/>
+      <c r="V11" s="153"/>
+      <c r="W11" s="153"/>
+      <c r="X11" s="153"/>
+      <c r="Y11" s="153"/>
+      <c r="Z11" s="153"/>
     </row>
     <row r="12">
-      <c r="A12" s="151" t="s">
+      <c r="A12" s="152" t="s">
+        <v>650</v>
+      </c>
+      <c r="B12" s="153" t="s">
         <v>648</v>
       </c>
-      <c r="B12" s="152" t="s">
-        <v>646</v>
-      </c>
-      <c r="C12" s="152" t="s">
-        <v>627</v>
-      </c>
-      <c r="D12" s="152" t="s">
-        <v>649</v>
-      </c>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="152"/>
-      <c r="S12" s="152"/>
-      <c r="T12" s="152"/>
-      <c r="U12" s="152"/>
-      <c r="V12" s="152"/>
-      <c r="W12" s="152"/>
-      <c r="X12" s="152"/>
-      <c r="Y12" s="152"/>
-      <c r="Z12" s="152"/>
+      <c r="C12" s="153" t="s">
+        <v>629</v>
+      </c>
+      <c r="D12" s="153" t="s">
+        <v>651</v>
+      </c>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="153"/>
+      <c r="O12" s="153"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="153"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="153"/>
+      <c r="V12" s="153"/>
+      <c r="W12" s="153"/>
+      <c r="X12" s="153"/>
+      <c r="Y12" s="153"/>
+      <c r="Z12" s="153"/>
     </row>
     <row r="13">
       <c r="A13" s="117" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B13" s="117" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -18086,16 +18122,16 @@
     </row>
     <row r="14">
       <c r="A14" s="117" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -18146,52 +18182,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="153" t="s">
-        <v>619</v>
+      <c r="A1" s="154" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="135" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B2" s="135" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C2" s="135" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D2" s="135" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="132" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B3" s="132" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="132" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B4" s="132" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="132" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B5" s="132" t="s">
+        <v>661</v>
+      </c>
+      <c r="C5" s="155" t="s">
         <v>659</v>
       </c>
-      <c r="C5" s="154" t="s">
-        <v>657</v>
-      </c>
       <c r="D5" s="132" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F13/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F13/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <r>
@@ -2739,7 +2739,8 @@
     <t>Received Submissions Count</t>
   </si>
   <si>
-    <t>RESULTS/AWARDED_PRIZE/PARTICIPANTS/NB_PARTICIPANTS</t>
+    <t>RESULTS/AWARDED_PRIZE/PARTICIPANTS/NB_PARTICIPANTS
+RESULTS/AWARDED_PRIZE/NB_PARTICIPANTS</t>
   </si>
   <si>
     <t xml:space="preserve"> epo:SubmissionStatisticalInformation / xsd:integer</t>
@@ -2754,7 +2755,8 @@
     <t>Number of participating SMEs</t>
   </si>
   <si>
-    <t>RESULTS/AWARDED_PRIZE/PARTICIPANTS/NB_PARTICIPANTS_SME</t>
+    <t>RESULTS/AWARDED_PRIZE/PARTICIPANTS/NB_PARTICIPANTS_SME
+RESULTS/AWARDED_PRIZE/NB_PARTICIPANTS_SME</t>
   </si>
   <si>
     <t>epo:SubmissionStatisticalInformation / xsd:integer</t>
@@ -2794,7 +2796,8 @@
     <t>Number of participants from other countries</t>
   </si>
   <si>
-    <t>RESULTS/AWARDED_PRIZE/PARTICIPANTS/NB_PARTICIPANTS_OTHER_EU</t>
+    <t>RESULTS/AWARDED_PRIZE/PARTICIPANTS/NB_PARTICIPANTS_OTHER_EU
+RESULTS/AWARDED_PRIZE//NB_PARTICIPANTS_OTHER_EU</t>
   </si>
   <si>
     <t xml:space="preserve">  { ?this epo:hasEUReceivedTenders  ?value .  }
@@ -2827,7 +2830,8 @@
     <t>V.3.3.1</t>
   </si>
   <si>
-    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/OFFICIALNAME</t>
+    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/OFFICIALNAME
+RESULTS/AWARDED_PRIZE/WINNER/ADDRESS_WINNER/OFFICIALNAME</t>
   </si>
   <si>
     <r>
@@ -2872,7 +2876,8 @@
     <t>V.3.3.2</t>
   </si>
   <si>
-    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/NATIONALID</t>
+    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/NATIONALID
+RESULTS/AWARDED_PRIZE/WINNER/ADDRESS_WINNER/NATIONALID</t>
   </si>
   <si>
     <r>
@@ -2917,7 +2922,8 @@
     <t>V.3.3.3</t>
   </si>
   <si>
-    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/ADDRESS</t>
+    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/ADDRESS
+RESULTS/AWARDED_PRIZE/WINNER/ADDRESS_WINNER/ADDRESS</t>
   </si>
   <si>
     <r>
@@ -2957,7 +2963,8 @@
     <t>V.3.3.4</t>
   </si>
   <si>
-    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/TOWN</t>
+    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/TOWN
+RESULTS/AWARDED_PRIZE/WINNER/ADDRESS_WINNER/TOWN</t>
   </si>
   <si>
     <r>
@@ -2997,10 +3004,12 @@
     <t>V.3.3.5</t>
   </si>
   <si>
-    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/NUTS/@CODE</t>
-  </si>
-  <si>
-    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/*:NUTS/@CODE</t>
+    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/NUTS/@CODE
+RESULTS/AWARDED_PRIZE/WINNER/ADDRESS_WINNER/NUTS/@CODE</t>
+  </si>
+  <si>
+    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/*:NUTS/@CODE
+RESULTS/AWARDED_PRIZE/WINNER/ADDRESS_WINNER/*:NUTS/@CODE</t>
   </si>
   <si>
     <r>
@@ -3048,7 +3057,8 @@
     <t>Organisation Post Code</t>
   </si>
   <si>
-    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/POSTAL_CODE</t>
+    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/POSTAL_CODE
+RESULTS/AWARDED_PRIZE/WINNER/ADDRESS_WINNER/POSTAL_CODE</t>
   </si>
   <si>
     <r>
@@ -3093,7 +3103,8 @@
     <t>V.3.3.7</t>
   </si>
   <si>
-    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/COUNTRY</t>
+    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/COUNTRY
+RESULTS/AWARDED_PRIZE/WINNER/ADDRESS_WINNER/COUNTRY</t>
   </si>
   <si>
     <r>
@@ -3138,7 +3149,8 @@
     <t>V.3.3.8</t>
   </si>
   <si>
-    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/E_MAIL</t>
+    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/E_MAIL
+RESULTS/AWARDED_PRIZE/WINNER/ADDRESS_WINNER/E_MAIL</t>
   </si>
   <si>
     <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / cpov:ContactPoint / xsd:anyURI</t>
@@ -3150,7 +3162,8 @@
     <t>V.3.3.9</t>
   </si>
   <si>
-    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/PHONE</t>
+    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/PHONE
+RESULTS/AWARDED_PRIZE/WINNER/ADDRESS_WINNER/PHONE</t>
   </si>
   <si>
     <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / cpov:ContactPoint / rdf:langString</t>
@@ -3165,7 +3178,8 @@
     <t>Internet Addresses (URL)</t>
   </si>
   <si>
-    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/URL</t>
+    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/URL
+RESULTS/AWARDED_PRIZE/WINNER/ADDRESS_WINNER/URL</t>
   </si>
   <si>
     <r>
@@ -3192,7 +3206,8 @@
     <t>V.3.3.11</t>
   </si>
   <si>
-    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/FAX</t>
+    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/ADDRESS_WINNER/FAX
+RESULTS/AWARDED_PRIZE/WINNER/ADDRESS_WINNER/FAX</t>
   </si>
   <si>
     <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasFax ?value .</t>
@@ -3210,7 +3225,8 @@
     <t>Winner Size</t>
   </si>
   <si>
-    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/SME</t>
+    <t>RESULTS/AWARDED_PRIZE/WINNERS/WINNER/SME
+RESULTS/AWARDED_PRIZE/WINNER/SME</t>
   </si>
   <si>
     <t>epo:AgentInRole (from CL1) / org:Organization (from CL2)  / at-voc:economic-operator-size</t>

--- a/mappings/package_F13/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F13/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <r>
@@ -4524,7 +4524,7 @@
     <t>notice.rml.ttl</t>
   </si>
   <si>
-    <t>confidentiality.ttl</t>
+    <t>confidentiality.rml.ttl</t>
   </si>
   <si>
     <t>Informal (if possible to become formal)</t>
@@ -5002,7 +5002,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="155">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5436,9 +5436,6 @@
     <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -17630,7 +17627,7 @@
       <c r="B8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="148" t="s">
         <v>620</v>
       </c>
       <c r="B9" s="7"/>
@@ -17675,10 +17672,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="149" t="s">
         <v>621</v>
       </c>
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="149" t="s">
         <v>622</v>
       </c>
       <c r="E1" s="7"/>
@@ -17894,7 +17891,7 @@
       <c r="C7" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="D7" s="151" t="s">
+      <c r="D7" s="150" t="s">
         <v>638</v>
       </c>
       <c r="E7" s="7"/>
@@ -17957,148 +17954,148 @@
       <c r="Z8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="151" t="s">
         <v>642</v>
       </c>
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="152" t="s">
         <v>643</v>
       </c>
-      <c r="C9" s="153" t="s">
+      <c r="C9" s="152" t="s">
         <v>629</v>
       </c>
-      <c r="D9" s="153" t="s">
+      <c r="D9" s="152" t="s">
         <v>644</v>
       </c>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="153"/>
-      <c r="T9" s="153"/>
-      <c r="U9" s="153"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="153"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="153"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="152"/>
+      <c r="U9" s="152"/>
+      <c r="V9" s="152"/>
+      <c r="W9" s="152"/>
+      <c r="X9" s="152"/>
+      <c r="Y9" s="152"/>
+      <c r="Z9" s="152"/>
     </row>
     <row r="10">
-      <c r="A10" s="152" t="s">
+      <c r="A10" s="151" t="s">
         <v>645</v>
       </c>
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="152" t="s">
         <v>643</v>
       </c>
-      <c r="C10" s="153" t="s">
+      <c r="C10" s="152" t="s">
         <v>629</v>
       </c>
-      <c r="D10" s="153" t="s">
+      <c r="D10" s="152" t="s">
         <v>646</v>
       </c>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="153"/>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="153"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="152"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="152"/>
+      <c r="U10" s="152"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="152"/>
+      <c r="Z10" s="152"/>
     </row>
     <row r="11">
-      <c r="A11" s="152" t="s">
+      <c r="A11" s="151" t="s">
         <v>647</v>
       </c>
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="152" t="s">
         <v>648</v>
       </c>
-      <c r="C11" s="153" t="s">
+      <c r="C11" s="152" t="s">
         <v>629</v>
       </c>
-      <c r="D11" s="153" t="s">
+      <c r="D11" s="152" t="s">
         <v>649</v>
       </c>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="153"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="153"/>
-      <c r="R11" s="153"/>
-      <c r="S11" s="153"/>
-      <c r="T11" s="153"/>
-      <c r="U11" s="153"/>
-      <c r="V11" s="153"/>
-      <c r="W11" s="153"/>
-      <c r="X11" s="153"/>
-      <c r="Y11" s="153"/>
-      <c r="Z11" s="153"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="152"/>
+      <c r="M11" s="152"/>
+      <c r="N11" s="152"/>
+      <c r="O11" s="152"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="152"/>
+      <c r="R11" s="152"/>
+      <c r="S11" s="152"/>
+      <c r="T11" s="152"/>
+      <c r="U11" s="152"/>
+      <c r="V11" s="152"/>
+      <c r="W11" s="152"/>
+      <c r="X11" s="152"/>
+      <c r="Y11" s="152"/>
+      <c r="Z11" s="152"/>
     </row>
     <row r="12">
-      <c r="A12" s="152" t="s">
+      <c r="A12" s="151" t="s">
         <v>650</v>
       </c>
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="152" t="s">
         <v>648</v>
       </c>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="152" t="s">
         <v>629</v>
       </c>
-      <c r="D12" s="153" t="s">
+      <c r="D12" s="152" t="s">
         <v>651</v>
       </c>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="153"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="153"/>
-      <c r="X12" s="153"/>
-      <c r="Y12" s="153"/>
-      <c r="Z12" s="153"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="152"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="152"/>
+      <c r="U12" s="152"/>
+      <c r="V12" s="152"/>
+      <c r="W12" s="152"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="152"/>
+      <c r="Z12" s="152"/>
     </row>
     <row r="13">
       <c r="A13" s="117" t="s">
@@ -18198,7 +18195,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="153" t="s">
         <v>621</v>
       </c>
     </row>
@@ -18239,7 +18236,7 @@
       <c r="B5" s="132" t="s">
         <v>661</v>
       </c>
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="154" t="s">
         <v>659</v>
       </c>
       <c r="D5" s="132" t="s">

--- a/mappings/package_F13/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F13/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="668">
   <si>
     <t>Field</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>6.1.2</t>
   </si>
   <si>
     <r>
@@ -194,6 +194,21 @@
   </si>
   <si>
     <t>Notes (O)</t>
+  </si>
+  <si>
+    <t>MetaData</t>
+  </si>
+  <si>
+    <t>LEGAL_BASIS/@VALUE</t>
+  </si>
+  <si>
+    <t>epo:Procedure / at-voc:legal-basis</t>
+  </si>
+  <si>
+    <t>?this epo:hasLegalBasis ?value</t>
+  </si>
+  <si>
+    <t>gen_dangling_individuals.ask.rq, gen_empty_individuals.ask.rq</t>
   </si>
   <si>
     <t>Section I</t>
@@ -2765,6 +2780,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -2772,12 +2788,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:hasReceivedSMETenders ?</t>
     </r>
@@ -2785,6 +2803,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value .</t>
     </r>
@@ -2883,7 +2902,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -2891,14 +2909,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / epo:hasID / epo:hasIdentifierValue ?</t>
     </r>
@@ -2906,14 +2922,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -2970,6 +2984,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -2977,12 +2992,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
     </r>
@@ -2990,12 +3007,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -3314,7 +3333,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3322,14 +3340,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:isSubjectToLotSpecificTerm / epo:definesPrize / epo:hasPrizeValue / epo:hasAmountValue ?</t>
     </r>
@@ -3337,7 +3353,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value .</t>
     </r>
@@ -3361,6 +3376,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?this epo:isSubjectToLotSpecificTerm / epo:definesPrize / epo:hasPrizeValue / epo:hasCurrency ?</t>
     </r>
@@ -3368,6 +3384,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value .</t>
     </r>
@@ -3883,7 +3900,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -3891,14 +3907,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
     </r>
@@ -3906,14 +3920,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -4660,7 +4672,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -4710,6 +4722,11 @@
     </font>
     <font/>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -4733,6 +4750,7 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <u/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -4745,11 +4763,6 @@
     <font>
       <color theme="1"/>
       <name val="&quot;Times New Roman&quot;"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
     <font>
       <i/>
@@ -4769,6 +4782,11 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -5100,6 +5118,9 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5144,7 +5165,7 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -5172,16 +5193,10 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5193,13 +5208,13 @@
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="11" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="11" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5211,13 +5226,19 @@
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5226,19 +5247,25 @@
     <xf borderId="0" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -5247,10 +5274,16 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5260,43 +5293,34 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="8" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5305,16 +5329,22 @@
     <xf borderId="7" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -5341,23 +5371,11 @@
     <xf quotePrefix="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf quotePrefix="1" borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5369,32 +5387,32 @@
     <xf borderId="0" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5424,10 +5442,10 @@
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5436,10 +5454,10 @@
     <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -5448,10 +5466,10 @@
     <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -8944,16 +8962,22 @@
       <c r="A3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>45</v>
-      </c>
+      <c r="B3" s="34"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="4"/>
+      <c r="E3" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="7"/>
       <c r="L3" s="28"/>
@@ -8965,24 +8989,18 @@
       <c r="R3" s="28"/>
     </row>
     <row r="4">
-      <c r="A4" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>47</v>
+      <c r="A4" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="38" t="s">
-        <v>48</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>50</v>
-      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="7"/>
@@ -8995,31 +9013,25 @@
       <c r="R4" s="28"/>
     </row>
     <row r="5">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="H5" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="7"/>
       <c r="L5" s="28"/>
@@ -9031,30 +9043,30 @@
       <c r="R5" s="28"/>
     </row>
     <row r="6">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="E6" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="H6" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="I6" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="7"/>
@@ -9067,29 +9079,31 @@
       <c r="R6" s="28"/>
     </row>
     <row r="7">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="E7" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="H7" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="7"/>
       <c r="L7" s="28"/>
@@ -9101,27 +9115,27 @@
       <c r="R7" s="28"/>
     </row>
     <row r="8">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="D8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>78</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -9135,29 +9149,27 @@
       <c r="R8" s="28"/>
     </row>
     <row r="9">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="C9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="D9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="E9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="39" t="s">
         <v>84</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>87</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -9171,27 +9183,29 @@
       <c r="R9" s="28"/>
     </row>
     <row r="10">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="E10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="G10" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="H10" s="49" t="s">
         <v>92</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>94</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -9205,27 +9219,27 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="D11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="E11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="H11" s="39" t="s">
         <v>99</v>
-      </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="44" t="s">
-        <v>101</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -9239,31 +9253,29 @@
       <c r="R11" s="28"/>
     </row>
     <row r="12">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="D12" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="F12" s="43"/>
+      <c r="G12" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="H12" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="7"/>
       <c r="L12" s="28"/>
@@ -9275,29 +9287,31 @@
       <c r="R12" s="28"/>
     </row>
     <row r="13">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="D13" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="H13" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="7"/>
       <c r="L13" s="28"/>
@@ -9309,27 +9323,27 @@
       <c r="R13" s="28"/>
     </row>
     <row r="14">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="C14" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="50" t="s">
         <v>119</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>121</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -9343,27 +9357,27 @@
       <c r="R14" s="28"/>
     </row>
     <row r="15">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="D15" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="H15" s="49" t="s">
         <v>126</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>127</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -9377,18 +9391,28 @@
       <c r="R15" s="28"/>
     </row>
     <row r="16">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="C16" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="G16" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>132</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="7"/>
@@ -9401,28 +9425,18 @@
       <c r="R16" s="28"/>
     </row>
     <row r="17">
-      <c r="A17" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="42" t="s">
+      <c r="A17" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="B17" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="H17" s="44" t="s">
-        <v>135</v>
-      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="7"/>
@@ -9435,27 +9449,27 @@
       <c r="R17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="C18" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="45" t="s">
         <v>140</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H18" s="48" t="s">
-        <v>142</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -9469,18 +9483,28 @@
       <c r="R18" s="28"/>
     </row>
     <row r="19">
-      <c r="A19" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="G19" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>147</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="7"/>
@@ -9493,22 +9517,18 @@
       <c r="R19" s="28"/>
     </row>
     <row r="20">
-      <c r="A20" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="37"/>
+      <c r="A20" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>50</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="38" t="s">
-        <v>144</v>
-      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>146</v>
-      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="7"/>
@@ -9521,23 +9541,21 @@
       <c r="R20" s="28"/>
     </row>
     <row r="21">
-      <c r="A21" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>47</v>
-      </c>
+      <c r="A21" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="38"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="55" t="s">
-        <v>144</v>
+      <c r="E21" s="39" t="s">
+        <v>149</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>50</v>
+      <c r="G21" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>151</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -9551,33 +9569,27 @@
       <c r="R21" s="28"/>
     </row>
     <row r="22">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="42" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="I22" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="44"/>
-      <c r="K22" s="56"/>
+      <c r="H22" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
       <c r="N22" s="28"/>
@@ -9587,113 +9599,115 @@
       <c r="R22" s="28"/>
     </row>
     <row r="23">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="44" t="s">
+      <c r="E23" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44" t="s">
+      <c r="H23" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="45"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="I23" s="42" t="s">
+      <c r="B24" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="42"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="58"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="45" t="s">
+      <c r="D24" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="E24" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="I24" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" s="43"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="58"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="47" t="s">
+      <c r="B25" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="D25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>154</v>
+        <v>77</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>157</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -9707,29 +9721,27 @@
       <c r="R25" s="28"/>
     </row>
     <row r="26">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="C26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="D26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="35" t="s">
-        <v>83</v>
-      </c>
       <c r="E26" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="48" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>159</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -9743,27 +9755,29 @@
       <c r="R26" s="28"/>
     </row>
     <row r="27">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>159</v>
+      <c r="H27" s="49" t="s">
+        <v>162</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -9777,31 +9791,31 @@
       <c r="R27" s="28"/>
     </row>
     <row r="28">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="D28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="42" t="s">
+      <c r="E28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="56"/>
+      <c r="H28" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
       <c r="N28" s="28"/>
@@ -9811,73 +9825,73 @@
       <c r="R28" s="28"/>
     </row>
     <row r="29">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="D29" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="35" t="s">
+      <c r="H29" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="47" t="s">
+      <c r="B30" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="D30" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="35" t="s">
-        <v>107</v>
-      </c>
       <c r="H30" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="I30" s="4"/>
+        <v>168</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="J30" s="4"/>
       <c r="K30" s="7"/>
       <c r="L30" s="28"/>
@@ -9889,27 +9903,27 @@
       <c r="R30" s="28"/>
     </row>
     <row r="31">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="C31" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E31" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="H31" s="48" t="s">
-        <v>167</v>
+      <c r="G31" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>170</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -9923,27 +9937,27 @@
       <c r="R31" s="28"/>
     </row>
     <row r="32">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="D32" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" s="48" t="s">
-        <v>169</v>
+      <c r="H32" s="49" t="s">
+        <v>172</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -9957,18 +9971,28 @@
       <c r="R32" s="28"/>
     </row>
     <row r="33">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="C33" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="G33" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>174</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="7"/>
@@ -9981,31 +10005,21 @@
       <c r="R33" s="28"/>
     </row>
     <row r="34">
-      <c r="A34" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="42" t="s">
+      <c r="A34" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="H34" s="44" t="s">
-        <v>171</v>
-      </c>
+      <c r="B34" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="56"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="7"/>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
       <c r="N34" s="28"/>
@@ -10015,60 +10029,70 @@
       <c r="R34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="C35" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="7" t="s">
+      <c r="E35" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="43"/>
+      <c r="G35" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="H35" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="58"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58"/>
-      <c r="Y35" s="58"/>
-      <c r="Z35" s="58"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="B36" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>178</v>
+      </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -10081,24 +10105,18 @@
       <c r="R36" s="28"/>
     </row>
     <row r="37">
-      <c r="A37" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="B37" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="F37" s="62"/>
-      <c r="G37" s="14" t="s">
+      <c r="A37" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="H37" s="59" t="s">
+      <c r="B37" s="61" t="s">
         <v>180</v>
       </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -10111,31 +10129,25 @@
       <c r="R37" s="28"/>
     </row>
     <row r="38">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="F38" s="43"/>
+      <c r="G38" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="H38" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="H38" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>188</v>
-      </c>
+      <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="28"/>
@@ -10147,25 +10159,31 @@
       <c r="R38" s="28"/>
     </row>
     <row r="39">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="E39" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="63" t="s">
+      <c r="F39" s="36"/>
+      <c r="G39" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="H39" s="38" t="s">
+      <c r="I39" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="28"/>
@@ -10177,69 +10195,71 @@
       <c r="R39" s="28"/>
     </row>
     <row r="40">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D40" s="65" t="s">
+      <c r="F40" s="43"/>
+      <c r="G40" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E40" s="55" t="s">
+      <c r="H40" s="39" t="s">
         <v>198</v>
-      </c>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="H40" s="66" t="s">
-        <v>200</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="7"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="58"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="58"/>
-      <c r="T40" s="58"/>
-      <c r="U40" s="58"/>
-      <c r="V40" s="58"/>
-      <c r="W40" s="58"/>
-      <c r="X40" s="58"/>
-      <c r="Y40" s="58"/>
-      <c r="Z40" s="58"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="47" t="s">
+      <c r="D41" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39" t="s">
+      <c r="F41" s="64"/>
+      <c r="G41" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="H41" s="39" t="s">
+      <c r="H41" s="65" t="s">
         <v>205</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+      <c r="K41" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="L41" s="28"/>
       <c r="M41" s="28"/>
       <c r="N41" s="28"/>
@@ -10249,33 +10269,25 @@
       <c r="R41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="B42" s="37" t="s">
+      <c r="A42" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="B42" s="47"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="D42" s="65" t="s">
+      <c r="F42" s="40"/>
+      <c r="G42" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="E42" s="55" t="s">
+      <c r="H42" s="40" t="s">
         <v>210</v>
-      </c>
-      <c r="F42" s="65"/>
-      <c r="G42" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="H42" s="68" t="s">
-        <v>212</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="7" t="s">
-        <v>201</v>
-      </c>
+      <c r="K42" s="7"/>
       <c r="L42" s="28"/>
       <c r="M42" s="28"/>
       <c r="N42" s="28"/>
@@ -10285,25 +10297,33 @@
       <c r="R42" s="28"/>
     </row>
     <row r="43">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="39" t="s">
+      <c r="D43" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="H43" s="39" t="s">
+      <c r="E43" s="56" t="s">
         <v>215</v>
+      </c>
+      <c r="F43" s="64"/>
+      <c r="G43" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="H43" s="67" t="s">
+        <v>217</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
+      <c r="K43" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="L43" s="28"/>
       <c r="M43" s="28"/>
       <c r="N43" s="28"/>
@@ -10313,27 +10333,21 @@
       <c r="R43" s="28"/>
     </row>
     <row r="44">
-      <c r="A44" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="C44" s="65" t="s">
-        <v>208</v>
-      </c>
-      <c r="D44" s="65" t="s">
+      <c r="A44" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" s="47"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="E44" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="F44" s="65"/>
-      <c r="G44" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="H44" s="69" t="s">
-        <v>219</v>
+      <c r="H44" s="40" t="s">
+        <v>220</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -10347,21 +10361,27 @@
       <c r="R44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="B45" s="70"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="39" t="s">
+      <c r="A45" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="F45" s="71"/>
-      <c r="G45" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="H45" s="39" t="s">
+      <c r="B45" s="38" t="s">
         <v>222</v>
+      </c>
+      <c r="C45" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45" s="64"/>
+      <c r="G45" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="H45" s="68" t="s">
+        <v>224</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -10375,18 +10395,22 @@
       <c r="R45" s="28"/>
     </row>
     <row r="46">
-      <c r="A46" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B46" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="A46" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" s="69"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="F46" s="70"/>
+      <c r="G46" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="H46" s="71" t="s">
+        <v>227</v>
+      </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
@@ -10399,15 +10423,15 @@
       <c r="R46" s="28"/>
     </row>
     <row r="47">
-      <c r="A47" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>226</v>
+      <c r="A47" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" s="72" t="s">
+        <v>229</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="38"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -10423,31 +10447,19 @@
       <c r="R47" s="28"/>
     </row>
     <row r="48">
-      <c r="A48" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="B48" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>229</v>
-      </c>
+      <c r="A48" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="39"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="7"/>
       <c r="L48" s="28"/>
@@ -10459,74 +10471,76 @@
       <c r="R48" s="28"/>
     </row>
     <row r="49">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="D49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D49" s="44" t="s">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E49" s="44" t="s">
+      <c r="H49" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44" t="s">
+      <c r="I49" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="58"/>
+      <c r="S49" s="59"/>
+      <c r="T49" s="59"/>
+      <c r="U49" s="59"/>
+      <c r="V49" s="59"/>
+      <c r="W49" s="59"/>
+      <c r="X49" s="59"/>
+      <c r="Y49" s="59"/>
+      <c r="Z49" s="59"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="H49" s="44" t="s">
+      <c r="B50" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="I49" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="J49" s="56"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="57"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="57"/>
-      <c r="S49" s="58"/>
-      <c r="T49" s="58"/>
-      <c r="U49" s="58"/>
-      <c r="V49" s="58"/>
-      <c r="W49" s="58"/>
-      <c r="X49" s="58"/>
-      <c r="Y49" s="58"/>
-      <c r="Z49" s="58"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="47" t="s">
+      <c r="C50" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="D50" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="E50" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="F50" s="45"/>
+      <c r="G50" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="H50" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="H50" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
+      <c r="I50" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="J50" s="57"/>
       <c r="K50" s="7"/>
       <c r="L50" s="28"/>
       <c r="M50" s="28"/>
@@ -10537,27 +10551,27 @@
       <c r="R50" s="28"/>
     </row>
     <row r="51">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="D51" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>245</v>
+        <v>249</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>250</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -10571,23 +10585,27 @@
       <c r="R51" s="28"/>
     </row>
     <row r="52">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="B52" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="55" t="s">
+      <c r="C52" s="4" t="s">
         <v>253</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -10601,23 +10619,23 @@
       <c r="R52" s="28"/>
     </row>
     <row r="53">
-      <c r="A53" s="73" t="s">
-        <v>252</v>
-      </c>
-      <c r="B53" s="74" t="s">
+      <c r="A53" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="B53" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="55" t="s">
-        <v>253</v>
+      <c r="E53" s="56" t="s">
+        <v>258</v>
       </c>
       <c r="F53" s="4"/>
-      <c r="G53" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="H53" s="39" t="s">
-        <v>257</v>
+      <c r="G53" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -10631,18 +10649,24 @@
       <c r="R53" s="28"/>
     </row>
     <row r="54">
-      <c r="A54" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="B54" s="46" t="s">
-        <v>259</v>
+      <c r="A54" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="B54" s="75" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="4"/>
+      <c r="E54" s="56" t="s">
+        <v>258</v>
+      </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
+      <c r="G54" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="H54" s="71" t="s">
+        <v>262</v>
+      </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -10655,28 +10679,18 @@
       <c r="R54" s="28"/>
     </row>
     <row r="55">
-      <c r="A55" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="B55" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>261</v>
-      </c>
+      <c r="A55" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="B55" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>263</v>
-      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -10689,27 +10703,27 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56">
-      <c r="A56" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="B56" s="54" t="s">
+      <c r="A56" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="B56" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>249</v>
-      </c>
       <c r="E56" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -10723,17 +10737,17 @@
       <c r="R56" s="28"/>
     </row>
     <row r="57">
-      <c r="A57" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="B57" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="C57" s="35" t="s">
+      <c r="A57" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="D57" s="35" t="s">
-        <v>8</v>
+      <c r="B57" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>270</v>
@@ -10742,12 +10756,10 @@
       <c r="G57" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="H57" s="75" t="s">
-        <v>272</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="H57" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="28"/>
@@ -10759,19 +10771,31 @@
       <c r="R57" s="28"/>
     </row>
     <row r="58">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="B58" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="C58" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="D58" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="7"/>
+      <c r="G58" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="H58" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="28"/>
@@ -10783,28 +10807,18 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="76" t="s">
-        <v>275</v>
-      </c>
-      <c r="B59" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="D59" s="48" t="s">
+      <c r="A59" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="E59" s="48" t="s">
+      <c r="B59" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="F59" s="38"/>
-      <c r="G59" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="H59" s="77" t="s">
-        <v>281</v>
-      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
@@ -10817,27 +10831,27 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="B60" s="79" t="s">
-        <v>276</v>
-      </c>
-      <c r="C60" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="D60" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="E60" s="48" t="s">
+      <c r="A60" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="B60" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="F60" s="38"/>
-      <c r="G60" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="H60" s="77" t="s">
+      <c r="D60" s="78" t="s">
         <v>283</v>
+      </c>
+      <c r="E60" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="F60" s="39"/>
+      <c r="G60" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="H60" s="79" t="s">
+        <v>286</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -10851,31 +10865,29 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="76" t="s">
-        <v>284</v>
-      </c>
-      <c r="B61" s="54" t="s">
+      <c r="A61" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="C61" s="82" t="s">
+        <v>282</v>
+      </c>
+      <c r="D61" s="83" t="s">
+        <v>283</v>
+      </c>
+      <c r="E61" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="F61" s="84"/>
+      <c r="G61" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="C61" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="D61" s="59" t="s">
-        <v>287</v>
-      </c>
-      <c r="E61" s="55" t="s">
-        <v>279</v>
-      </c>
-      <c r="F61" s="59"/>
-      <c r="G61" s="48" t="s">
+      <c r="H61" s="79" t="s">
         <v>288</v>
       </c>
-      <c r="H61" s="77" t="s">
-        <v>289</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="28"/>
@@ -10887,21 +10899,31 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="82" t="s">
+      <c r="A62" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="B62" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="C62" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="38" t="s">
+      <c r="D62" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="7"/>
+      <c r="E62" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="F62" s="78"/>
+      <c r="G62" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="H62" s="79" t="s">
+        <v>294</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="28"/>
@@ -10913,18 +10935,20 @@
       <c r="R62" s="28"/>
     </row>
     <row r="63">
-      <c r="A63" s="83" t="s">
-        <v>293</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>8</v>
+      <c r="A63" s="85" t="s">
+        <v>295</v>
+      </c>
+      <c r="B63" s="72" t="s">
+        <v>296</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="E63" s="39" t="s">
+        <v>297</v>
+      </c>
       <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
@@ -10937,22 +10961,18 @@
       <c r="R63" s="28"/>
     </row>
     <row r="64">
-      <c r="A64" s="47" t="s">
-        <v>294</v>
-      </c>
-      <c r="B64" s="46"/>
+      <c r="A64" s="86" t="s">
+        <v>298</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>8</v>
+      </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="F64" s="71"/>
-      <c r="G64" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="H64" s="84" t="s">
-        <v>296</v>
-      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -10965,18 +10985,22 @@
       <c r="R64" s="28"/>
     </row>
     <row r="65">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="B65" s="47"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="87" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="59"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="71" t="s">
+        <v>300</v>
+      </c>
+      <c r="H65" s="88" t="s">
+        <v>301</v>
+      </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -10989,28 +11013,18 @@
       <c r="R65" s="28"/>
     </row>
     <row r="66">
-      <c r="A66" s="76" t="s">
-        <v>299</v>
-      </c>
-      <c r="B66" s="54" t="s">
-        <v>300</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="D66" s="35" t="s">
+      <c r="A66" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="E66" s="55" t="s">
+      <c r="B66" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="F66" s="48"/>
-      <c r="G66" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="H66" s="85" t="s">
-        <v>305</v>
-      </c>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="49"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
@@ -11023,27 +11037,27 @@
       <c r="R66" s="28"/>
     </row>
     <row r="67">
-      <c r="A67" s="76" t="s">
+      <c r="A67" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="B67" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="C67" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="B67" s="54" t="s">
+      <c r="D67" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="C67" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="E67" s="55" t="s">
+      <c r="E67" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="F67" s="48"/>
+      <c r="F67" s="49"/>
       <c r="G67" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="H67" s="85" t="s">
         <v>309</v>
+      </c>
+      <c r="H67" s="89" t="s">
+        <v>310</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -11057,22 +11071,28 @@
       <c r="R67" s="28"/>
     </row>
     <row r="68">
-      <c r="A68" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="B68" s="46" t="s">
+      <c r="A68" s="77" t="s">
         <v>311</v>
       </c>
-      <c r="C68" s="71" t="s">
+      <c r="B68" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="D68" s="71"/>
-      <c r="E68" s="86" t="s">
+      <c r="C68" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="E68" s="87" t="s">
         <v>313</v>
       </c>
-      <c r="F68" s="86"/>
-      <c r="G68" s="86"/>
-      <c r="H68" s="86"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H68" s="90" t="s">
+        <v>314</v>
+      </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
@@ -11085,23 +11105,25 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="B69" s="54" t="s">
+      <c r="A69" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="C69" s="87"/>
-      <c r="D69" s="87"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
+      <c r="B69" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="C69" s="91" t="s">
+        <v>317</v>
+      </c>
+      <c r="D69" s="91"/>
+      <c r="E69" s="91" t="s">
+        <v>318</v>
+      </c>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
-      <c r="K69" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="K69" s="7"/>
       <c r="L69" s="28"/>
       <c r="M69" s="28"/>
       <c r="N69" s="28"/>
@@ -11111,21 +11133,23 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="83" t="s">
-        <v>317</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
+      <c r="A70" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="B70" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="C70" s="92"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
+      <c r="K70" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="L70" s="28"/>
       <c r="M70" s="28"/>
       <c r="N70" s="28"/>
@@ -11135,27 +11159,19 @@
       <c r="R70" s="28"/>
     </row>
     <row r="71">
-      <c r="A71" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="B71" s="46" t="s">
-        <v>320</v>
-      </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="48" t="s">
-        <v>321</v>
-      </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="48" t="s">
+      <c r="A71" s="86" t="s">
         <v>322</v>
       </c>
-      <c r="H71" s="88" t="s">
+      <c r="B71" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="I71" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="28"/>
@@ -11167,21 +11183,27 @@
       <c r="R71" s="28"/>
     </row>
     <row r="72">
-      <c r="A72" s="82" t="s">
+      <c r="A72" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="47" t="s">
         <v>325</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="71" t="s">
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="F72" s="86"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="7"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="H72" s="93" t="s">
+        <v>328</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="28"/>
@@ -11193,24 +11215,20 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="B73" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="C73" s="48" t="s">
+      <c r="A73" s="85" t="s">
         <v>329</v>
       </c>
-      <c r="D73" s="48" t="s">
+      <c r="B73" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="E73" s="39" t="s">
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="91" t="s">
         <v>331</v>
       </c>
-      <c r="F73" s="86"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="71"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
@@ -11223,24 +11241,24 @@
       <c r="R73" s="28"/>
     </row>
     <row r="74">
-      <c r="A74" s="89" t="s">
-        <v>327</v>
-      </c>
-      <c r="B74" s="90" t="s">
-        <v>328</v>
-      </c>
-      <c r="C74" s="91" t="s">
-        <v>329</v>
-      </c>
-      <c r="D74" s="91" t="s">
-        <v>330</v>
-      </c>
-      <c r="E74" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="F74" s="71"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="71"/>
+      <c r="A74" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="B74" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="C74" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="E74" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="F74" s="91"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="91"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
@@ -11253,24 +11271,24 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="89" t="s">
-        <v>327</v>
-      </c>
-      <c r="B75" s="90" t="s">
-        <v>328</v>
-      </c>
-      <c r="C75" s="91" t="s">
-        <v>329</v>
-      </c>
-      <c r="D75" s="91" t="s">
-        <v>330</v>
-      </c>
-      <c r="E75" s="71" t="s">
+      <c r="A75" s="94" t="s">
         <v>332</v>
       </c>
-      <c r="F75" s="71"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="71"/>
+      <c r="B75" s="95" t="s">
+        <v>333</v>
+      </c>
+      <c r="C75" s="96" t="s">
+        <v>334</v>
+      </c>
+      <c r="D75" s="96" t="s">
+        <v>335</v>
+      </c>
+      <c r="E75" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="F75" s="91"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="91"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
@@ -11283,20 +11301,24 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="83" t="s">
+      <c r="A76" s="94" t="s">
+        <v>332</v>
+      </c>
+      <c r="B76" s="95" t="s">
         <v>333</v>
       </c>
-      <c r="B76" s="37" t="s">
+      <c r="C76" s="96" t="s">
         <v>334</v>
       </c>
-      <c r="C76" s="92" t="s">
+      <c r="D76" s="96" t="s">
         <v>335</v>
       </c>
-      <c r="D76" s="48"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
+      <c r="E76" s="91" t="s">
+        <v>337</v>
+      </c>
+      <c r="F76" s="91"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="91"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
@@ -11309,16 +11331,16 @@
       <c r="R76" s="28"/>
     </row>
     <row r="77">
-      <c r="A77" s="45" t="s">
-        <v>336</v>
-      </c>
-      <c r="B77" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="C77" s="92" t="s">
-        <v>335</v>
-      </c>
-      <c r="D77" s="4"/>
+      <c r="A77" s="86" t="s">
+        <v>338</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="C77" s="97" t="s">
+        <v>340</v>
+      </c>
+      <c r="D77" s="49"/>
       <c r="E77" s="4"/>
       <c r="F77" s="7"/>
       <c r="G77" s="4"/>
@@ -11335,28 +11357,20 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="76" t="s">
-        <v>338</v>
-      </c>
-      <c r="B78" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="C78" s="48" t="s">
+      <c r="A78" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="B78" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="C78" s="97" t="s">
         <v>340</v>
       </c>
-      <c r="D78" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="E78" s="48" t="s">
-        <v>342</v>
-      </c>
-      <c r="F78" s="48"/>
-      <c r="G78" s="39" t="s">
-        <v>343</v>
-      </c>
-      <c r="H78" s="93" t="s">
-        <v>344</v>
-      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
@@ -11369,26 +11383,26 @@
       <c r="R78" s="28"/>
     </row>
     <row r="79">
-      <c r="A79" s="76" t="s">
+      <c r="A79" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="B79" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="C79" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="B79" s="54" t="s">
+      <c r="D79" s="49" t="s">
         <v>346</v>
       </c>
-      <c r="C79" s="48" t="s">
+      <c r="E79" s="49" t="s">
         <v>347</v>
       </c>
-      <c r="D79" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="E79" s="48" t="s">
+      <c r="F79" s="49"/>
+      <c r="G79" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="F79" s="48"/>
-      <c r="G79" s="39" t="s">
-        <v>343</v>
-      </c>
-      <c r="H79" s="93" t="s">
+      <c r="H79" s="98" t="s">
         <v>349</v>
       </c>
       <c r="I79" s="7"/>
@@ -11403,24 +11417,26 @@
       <c r="R79" s="28"/>
     </row>
     <row r="80">
-      <c r="A80" s="76" t="s">
+      <c r="A80" s="77" t="s">
         <v>350</v>
       </c>
-      <c r="B80" s="54" t="s">
+      <c r="B80" s="55" t="s">
         <v>351</v>
       </c>
-      <c r="C80" s="94" t="s">
-        <v>312</v>
-      </c>
-      <c r="D80" s="48"/>
-      <c r="E80" s="39" t="s">
+      <c r="C80" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39" t="s">
+      <c r="D80" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="E80" s="49" t="s">
         <v>353</v>
       </c>
-      <c r="H80" s="95" t="s">
+      <c r="F80" s="49"/>
+      <c r="G80" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="H80" s="98" t="s">
         <v>354</v>
       </c>
       <c r="I80" s="7"/>
@@ -11435,20 +11451,26 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="83" t="s">
+      <c r="A81" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="B81" s="37" t="s">
+      <c r="B81" s="55" t="s">
         <v>356</v>
       </c>
-      <c r="C81" s="96" t="s">
-        <v>335</v>
-      </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
+      <c r="C81" s="99" t="s">
+        <v>317</v>
+      </c>
+      <c r="D81" s="49"/>
+      <c r="E81" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="F81" s="71"/>
+      <c r="G81" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="H81" s="91" t="s">
+        <v>359</v>
+      </c>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -11461,22 +11483,20 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="76" t="s">
-        <v>357</v>
-      </c>
-      <c r="B82" s="97"/>
-      <c r="C82" s="4"/>
+      <c r="A82" s="86" t="s">
+        <v>360</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="C82" s="100" t="s">
+        <v>340</v>
+      </c>
       <c r="D82" s="4"/>
-      <c r="E82" s="55" t="s">
-        <v>331</v>
-      </c>
+      <c r="E82" s="36"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="H82" s="39" t="s">
-        <v>359</v>
-      </c>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
@@ -11489,21 +11509,21 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="76" t="s">
-        <v>357</v>
-      </c>
-      <c r="B83" s="97"/>
+      <c r="A83" s="77" t="s">
+        <v>362</v>
+      </c>
+      <c r="B83" s="101"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="55" t="s">
-        <v>331</v>
+      <c r="E83" s="56" t="s">
+        <v>336</v>
       </c>
       <c r="F83" s="7"/>
-      <c r="G83" s="39" t="s">
-        <v>360</v>
-      </c>
-      <c r="H83" s="93" t="s">
-        <v>361</v>
+      <c r="G83" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="H83" s="98" t="s">
+        <v>364</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
@@ -11517,27 +11537,21 @@
       <c r="R83" s="28"/>
     </row>
     <row r="84">
-      <c r="A84" s="47" t="s">
+      <c r="A84" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="B84" s="46" t="s">
-        <v>363</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="D84" s="4" t="s">
+      <c r="B84" s="101"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="E84" s="38" t="s">
+      <c r="H84" s="98" t="s">
         <v>366</v>
-      </c>
-      <c r="F84" s="4"/>
-      <c r="G84" s="39" t="s">
-        <v>367</v>
-      </c>
-      <c r="H84" s="93" t="s">
-        <v>368</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
@@ -11551,27 +11565,29 @@
       <c r="R84" s="28"/>
     </row>
     <row r="85">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="B85" s="47" t="s">
+        <v>368</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B85" s="46" t="s">
+      <c r="D85" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="55" t="s">
-        <v>331</v>
+      <c r="E85" s="39" t="s">
+        <v>371</v>
       </c>
       <c r="F85" s="4"/>
-      <c r="G85" s="48" t="s">
-        <v>371</v>
-      </c>
-      <c r="H85" s="35" t="s">
+      <c r="G85" s="40" t="s">
         <v>372</v>
       </c>
-      <c r="I85" s="7" t="s">
+      <c r="H85" s="40" t="s">
         <v>373</v>
       </c>
+      <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
       <c r="L85" s="28"/>
@@ -11583,23 +11599,29 @@
       <c r="R85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="76" t="s">
+      <c r="A86" s="48" t="s">
         <v>374</v>
       </c>
-      <c r="B86" s="97" t="s">
-        <v>315</v>
+      <c r="B86" s="47" t="s">
+        <v>375</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="E86" s="56" t="s">
+        <v>336</v>
+      </c>
       <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="7"/>
+      <c r="G86" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="H86" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>378</v>
+      </c>
       <c r="J86" s="7"/>
-      <c r="K86" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="K86" s="7"/>
       <c r="L86" s="28"/>
       <c r="M86" s="28"/>
       <c r="N86" s="28"/>
@@ -11609,49 +11631,45 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="76" t="s">
-        <v>375</v>
-      </c>
-      <c r="B87" s="54" t="s">
-        <v>376</v>
-      </c>
-      <c r="C87" s="71" t="s">
-        <v>377</v>
-      </c>
-      <c r="D87" s="71" t="s">
-        <v>378</v>
-      </c>
-      <c r="E87" s="98" t="s">
+      <c r="A87" s="77" t="s">
         <v>379</v>
       </c>
-      <c r="F87" s="98"/>
-      <c r="G87" s="98" t="s">
-        <v>380</v>
-      </c>
-      <c r="H87" s="99" t="s">
-        <v>381</v>
-      </c>
+      <c r="B87" s="101" t="s">
+        <v>320</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
+      <c r="K87" s="7" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="76" t="s">
+      <c r="A88" s="77" t="s">
+        <v>380</v>
+      </c>
+      <c r="B88" s="55" t="s">
+        <v>381</v>
+      </c>
+      <c r="C88" s="91" t="s">
         <v>382</v>
       </c>
-      <c r="B88" s="54" t="s">
+      <c r="D88" s="91" t="s">
         <v>383</v>
       </c>
-      <c r="C88" s="71"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="39" t="s">
+      <c r="E88" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39" t="s">
+      <c r="F88" s="40"/>
+      <c r="G88" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="H88" s="93" t="s">
+      <c r="H88" s="98" t="s">
         <v>386</v>
       </c>
       <c r="I88" s="7"/>
@@ -11659,1474 +11677,1484 @@
       <c r="K88" s="7"/>
     </row>
     <row r="89">
-      <c r="A89" s="76" t="s">
+      <c r="A89" s="77" t="s">
         <v>387</v>
       </c>
-      <c r="B89" s="54" t="s">
+      <c r="B89" s="55" t="s">
         <v>388</v>
       </c>
-      <c r="C89" s="71"/>
-      <c r="D89" s="71"/>
-      <c r="E89" s="39" t="s">
+      <c r="C89" s="91"/>
+      <c r="D89" s="91"/>
+      <c r="E89" s="40" t="s">
         <v>389</v>
       </c>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39" t="s">
-        <v>385</v>
-      </c>
-      <c r="H89" s="39" t="s">
+      <c r="F89" s="40"/>
+      <c r="G89" s="40" t="s">
         <v>390</v>
+      </c>
+      <c r="H89" s="40" t="s">
+        <v>391</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
     </row>
     <row r="90">
-      <c r="A90" s="78" t="s">
-        <v>391</v>
-      </c>
-      <c r="B90" s="79" t="s">
+      <c r="A90" s="77" t="s">
         <v>392</v>
       </c>
-      <c r="C90" s="100" t="s">
+      <c r="B90" s="55" t="s">
         <v>393</v>
       </c>
-      <c r="D90" s="71"/>
-      <c r="E90" s="101" t="s">
+      <c r="C90" s="91"/>
+      <c r="D90" s="91"/>
+      <c r="E90" s="40" t="s">
         <v>394</v>
       </c>
-      <c r="F90" s="71"/>
-      <c r="G90" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="H90" s="71" t="s">
-        <v>146</v>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="H90" s="40" t="s">
+        <v>395</v>
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="47" t="s">
-        <v>395</v>
-      </c>
-      <c r="B91" s="46" t="s">
+      <c r="A91" s="80" t="s">
         <v>396</v>
       </c>
+      <c r="B91" s="81" t="s">
+        <v>397</v>
+      </c>
       <c r="C91" s="102" t="s">
-        <v>335</v>
-      </c>
-      <c r="D91" s="59"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
+        <v>398</v>
+      </c>
+      <c r="D91" s="70"/>
+      <c r="E91" s="103" t="s">
+        <v>399</v>
+      </c>
+      <c r="F91" s="70"/>
+      <c r="G91" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="H91" s="91" t="s">
+        <v>151</v>
+      </c>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
     </row>
     <row r="92">
-      <c r="A92" s="76" t="s">
-        <v>397</v>
-      </c>
-      <c r="B92" s="97" t="s">
-        <v>315</v>
-      </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
+      <c r="A92" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="B92" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="C92" s="104" t="s">
+        <v>340</v>
+      </c>
+      <c r="D92" s="78"/>
+      <c r="E92" s="84"/>
+      <c r="F92" s="78"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
-      <c r="K92" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="76" t="s">
-        <v>398</v>
-      </c>
-      <c r="B93" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C93" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="D93" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="E93" s="98" t="s">
-        <v>399</v>
-      </c>
-      <c r="F93" s="98"/>
-      <c r="G93" s="103" t="s">
-        <v>56</v>
-      </c>
-      <c r="H93" s="103" t="s">
-        <v>400</v>
-      </c>
-      <c r="I93" s="7" t="s">
+      <c r="A93" s="77" t="s">
+        <v>402</v>
+      </c>
+      <c r="B93" s="101" t="s">
+        <v>320</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="77" t="s">
+        <v>403</v>
+      </c>
+      <c r="B94" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="76" t="s">
-        <v>401</v>
-      </c>
-      <c r="B94" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C94" s="35" t="s">
+      <c r="D94" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E94" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="F94" s="40"/>
+      <c r="G94" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="D94" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E94" s="48" t="s">
-        <v>402</v>
-      </c>
-      <c r="F94" s="48"/>
-      <c r="G94" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="H94" s="44" t="s">
-        <v>403</v>
+      <c r="H94" s="105" t="s">
+        <v>405</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
     </row>
     <row r="95">
-      <c r="A95" s="76" t="s">
-        <v>404</v>
-      </c>
-      <c r="B95" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C95" s="35" t="s">
+      <c r="A95" s="77" t="s">
+        <v>406</v>
+      </c>
+      <c r="B95" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C95" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E95" s="49" t="s">
+        <v>407</v>
+      </c>
+      <c r="F95" s="49"/>
+      <c r="G95" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D95" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="E95" s="48" t="s">
-        <v>405</v>
-      </c>
-      <c r="F95" s="48"/>
-      <c r="G95" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H95" s="104" t="s">
-        <v>406</v>
-      </c>
-      <c r="I95" s="7"/>
+      <c r="H95" s="106" t="s">
+        <v>408</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
     </row>
     <row r="96">
-      <c r="A96" s="76" t="s">
-        <v>407</v>
-      </c>
-      <c r="B96" s="54" t="s">
+      <c r="A96" s="77" t="s">
+        <v>409</v>
+      </c>
+      <c r="B96" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D96" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C96" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D96" s="48" t="s">
+      <c r="E96" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="F96" s="49"/>
+      <c r="G96" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E96" s="48" t="s">
-        <v>408</v>
-      </c>
-      <c r="F96" s="48"/>
-      <c r="G96" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H96" s="104" t="s">
-        <v>409</v>
+      <c r="H96" s="107" t="s">
+        <v>411</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
     </row>
     <row r="97">
-      <c r="A97" s="76" t="s">
-        <v>410</v>
-      </c>
-      <c r="B97" s="54" t="s">
+      <c r="A97" s="77" t="s">
+        <v>412</v>
+      </c>
+      <c r="B97" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C97" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C97" s="35" t="s">
+      <c r="D97" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D97" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E97" s="38" t="s">
-        <v>411</v>
-      </c>
-      <c r="F97" s="38" t="s">
-        <v>412</v>
-      </c>
-      <c r="G97" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="H97" s="48" t="s">
+      <c r="E97" s="49" t="s">
         <v>413</v>
+      </c>
+      <c r="F97" s="49"/>
+      <c r="G97" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H97" s="39" t="s">
+        <v>414</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
     </row>
     <row r="98">
-      <c r="A98" s="76" t="s">
-        <v>414</v>
-      </c>
-      <c r="B98" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C98" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D98" s="48" t="s">
+      <c r="A98" s="77" t="s">
         <v>415</v>
       </c>
-      <c r="E98" s="48" t="s">
+      <c r="B98" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D98" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E98" s="39" t="s">
         <v>416</v>
       </c>
-      <c r="F98" s="48"/>
-      <c r="G98" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H98" s="38" t="s">
+      <c r="F98" s="39" t="s">
         <v>417</v>
+      </c>
+      <c r="G98" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H98" s="49" t="s">
+        <v>418</v>
       </c>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
     </row>
     <row r="99">
-      <c r="A99" s="76" t="s">
-        <v>418</v>
-      </c>
-      <c r="B99" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C99" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D99" s="48" t="s">
+      <c r="A99" s="77" t="s">
+        <v>419</v>
+      </c>
+      <c r="B99" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="E99" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="F99" s="49"/>
+      <c r="G99" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E99" s="48" t="s">
-        <v>419</v>
-      </c>
-      <c r="F99" s="48"/>
-      <c r="G99" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H99" s="42" t="s">
-        <v>420</v>
+      <c r="H99" s="39" t="s">
+        <v>422</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
     </row>
     <row r="100">
-      <c r="A100" s="76" t="s">
-        <v>421</v>
-      </c>
-      <c r="B100" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C100" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D100" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="E100" s="48" t="s">
-        <v>422</v>
-      </c>
-      <c r="F100" s="48"/>
-      <c r="G100" s="48" t="s">
+      <c r="A100" s="77" t="s">
         <v>423</v>
       </c>
-      <c r="H100" s="48" t="s">
+      <c r="B100" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E100" s="49" t="s">
         <v>424</v>
+      </c>
+      <c r="F100" s="49"/>
+      <c r="G100" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="H100" s="43" t="s">
+        <v>425</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
     </row>
     <row r="101">
-      <c r="A101" s="76" t="s">
-        <v>425</v>
-      </c>
-      <c r="B101" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C101" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="D101" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="E101" s="48" t="s">
+      <c r="A101" s="77" t="s">
         <v>426</v>
       </c>
-      <c r="F101" s="48"/>
-      <c r="G101" s="48" t="s">
+      <c r="B101" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C101" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D101" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E101" s="49" t="s">
         <v>427</v>
       </c>
-      <c r="H101" s="48" t="s">
+      <c r="F101" s="49"/>
+      <c r="G101" s="49" t="s">
         <v>428</v>
+      </c>
+      <c r="H101" s="49" t="s">
+        <v>429</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
     </row>
     <row r="102">
-      <c r="A102" s="76" t="s">
-        <v>429</v>
-      </c>
-      <c r="B102" s="54" t="s">
+      <c r="A102" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="C102" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="D102" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="E102" s="48" t="s">
+      <c r="B102" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E102" s="49" t="s">
         <v>431</v>
       </c>
-      <c r="F102" s="48"/>
-      <c r="G102" s="44" t="s">
-        <v>423</v>
-      </c>
-      <c r="H102" s="105" t="s">
+      <c r="F102" s="49"/>
+      <c r="G102" s="49" t="s">
         <v>432</v>
+      </c>
+      <c r="H102" s="108" t="s">
+        <v>433</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
     </row>
     <row r="103">
-      <c r="A103" s="76" t="s">
-        <v>433</v>
-      </c>
-      <c r="B103" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C103" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="D103" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="E103" s="48" t="s">
+      <c r="A103" s="77" t="s">
         <v>434</v>
       </c>
-      <c r="F103" s="48"/>
-      <c r="G103" s="48" t="s">
-        <v>427</v>
+      <c r="B103" s="55" t="s">
+        <v>435</v>
+      </c>
+      <c r="C103" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D103" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E103" s="49" t="s">
+        <v>436</v>
+      </c>
+      <c r="F103" s="49"/>
+      <c r="G103" s="45" t="s">
+        <v>428</v>
       </c>
       <c r="H103" s="106" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="76" t="s">
-        <v>436</v>
-      </c>
-      <c r="B104" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="C104" s="35" t="s">
+      <c r="A104" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="D104" s="48" t="s">
+      <c r="B104" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D104" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E104" s="49" t="s">
         <v>439</v>
       </c>
-      <c r="E104" s="48" t="s">
+      <c r="F104" s="49"/>
+      <c r="G104" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="H104" s="108" t="s">
         <v>440</v>
-      </c>
-      <c r="F104" s="38"/>
-      <c r="G104" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="H104" s="107" t="s">
-        <v>442</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
     </row>
     <row r="105">
-      <c r="A105" s="76" t="s">
-        <v>436</v>
-      </c>
-      <c r="B105" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="C105" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="D105" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="E105" s="55" t="s">
-        <v>440</v>
-      </c>
-      <c r="F105" s="38"/>
+      <c r="A105" s="77" t="s">
+        <v>441</v>
+      </c>
+      <c r="B105" s="55" t="s">
+        <v>442</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="D105" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="E105" s="49" t="s">
+        <v>445</v>
+      </c>
+      <c r="F105" s="39"/>
       <c r="G105" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="H105" s="107" t="s">
-        <v>443</v>
+        <v>446</v>
+      </c>
+      <c r="H105" s="109" t="s">
+        <v>447</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="77" t="s">
+        <v>441</v>
+      </c>
+      <c r="B106" s="55" t="s">
+        <v>442</v>
+      </c>
+      <c r="C106" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="D106" s="78" t="s">
         <v>444</v>
       </c>
-      <c r="B106" s="46" t="s">
+      <c r="E106" s="87" t="s">
         <v>445</v>
       </c>
-      <c r="C106" s="92" t="s">
-        <v>335</v>
-      </c>
-      <c r="D106" s="59"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="59"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="14"/>
+      <c r="F106" s="84"/>
+      <c r="G106" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H106" s="110" t="s">
+        <v>448</v>
+      </c>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
     </row>
     <row r="107">
-      <c r="A107" s="76" t="s">
-        <v>446</v>
-      </c>
-      <c r="B107" s="97" t="s">
-        <v>315</v>
-      </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
+      <c r="A107" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="B107" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="C107" s="97" t="s">
+        <v>340</v>
+      </c>
+      <c r="D107" s="49"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="49"/>
       <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
+      <c r="H107" s="36"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
-      <c r="K107" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="K107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="76" t="s">
-        <v>447</v>
-      </c>
-      <c r="B108" s="54" t="s">
-        <v>448</v>
-      </c>
-      <c r="C108" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="D108" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="E108" s="48" t="s">
+      <c r="A108" s="77" t="s">
         <v>451</v>
       </c>
-      <c r="F108" s="48"/>
-      <c r="G108" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="H108" s="39" t="s">
-        <v>453</v>
-      </c>
+      <c r="B108" s="101" t="s">
+        <v>320</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
+      <c r="K108" s="7" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="108" t="s">
+      <c r="A109" s="77" t="s">
+        <v>452</v>
+      </c>
+      <c r="B109" s="55" t="s">
+        <v>453</v>
+      </c>
+      <c r="C109" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="B109" s="109" t="s">
+      <c r="D109" s="84" t="s">
         <v>455</v>
       </c>
-      <c r="C109" s="110" t="s">
+      <c r="E109" s="78" t="s">
         <v>456</v>
       </c>
-      <c r="D109" s="59"/>
-      <c r="E109" s="59" t="s">
+      <c r="F109" s="78"/>
+      <c r="G109" s="71" t="s">
         <v>457</v>
       </c>
-      <c r="F109" s="59"/>
-      <c r="G109" s="98" t="s">
+      <c r="H109" s="111" t="s">
         <v>458</v>
-      </c>
-      <c r="H109" s="99" t="s">
-        <v>459</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
     </row>
     <row r="110">
-      <c r="A110" s="82" t="s">
+      <c r="A110" s="112" t="s">
+        <v>459</v>
+      </c>
+      <c r="B110" s="113" t="s">
         <v>460</v>
       </c>
-      <c r="B110" s="34" t="s">
+      <c r="C110" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
+      <c r="D110" s="49"/>
+      <c r="E110" s="49" t="s">
+        <v>462</v>
+      </c>
+      <c r="F110" s="49"/>
+      <c r="G110" s="40" t="s">
+        <v>463</v>
+      </c>
+      <c r="H110" s="40" t="s">
+        <v>464</v>
+      </c>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
     </row>
     <row r="111">
-      <c r="A111" s="83" t="s">
-        <v>462</v>
-      </c>
-      <c r="B111" s="37" t="s">
-        <v>463</v>
-      </c>
-      <c r="C111" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="D111" s="4" t="s">
+      <c r="A111" s="85" t="s">
         <v>465</v>
       </c>
-      <c r="E111" s="111" t="s">
+      <c r="B111" s="34" t="s">
         <v>466</v>
       </c>
-      <c r="F111" s="111"/>
-      <c r="G111" s="112" t="s">
-        <v>230</v>
-      </c>
-      <c r="H111" s="113" t="s">
-        <v>467</v>
-      </c>
-      <c r="I111" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="7"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
     </row>
     <row r="112">
-      <c r="A112" s="83" t="s">
+      <c r="A112" s="86" t="s">
+        <v>467</v>
+      </c>
+      <c r="B112" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="B112" s="37" t="s">
+      <c r="C112" s="78" t="s">
         <v>469</v>
       </c>
-      <c r="C112" s="102" t="s">
-        <v>335</v>
-      </c>
-      <c r="D112" s="7"/>
-      <c r="E112" s="114"/>
-      <c r="F112" s="114"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
+      <c r="D112" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="E112" s="115" t="s">
+        <v>471</v>
+      </c>
+      <c r="F112" s="115"/>
+      <c r="G112" s="116" t="s">
+        <v>235</v>
+      </c>
+      <c r="H112" s="117" t="s">
+        <v>472</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
     </row>
     <row r="113">
-      <c r="A113" s="47" t="s">
-        <v>470</v>
-      </c>
-      <c r="B113" s="46" t="s">
-        <v>471</v>
-      </c>
-      <c r="C113" s="115" t="s">
-        <v>335</v>
+      <c r="A113" s="86" t="s">
+        <v>473</v>
+      </c>
+      <c r="B113" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="C113" s="97" t="s">
+        <v>340</v>
       </c>
       <c r="D113" s="4"/>
-      <c r="E113" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="F113" s="48"/>
-      <c r="G113" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H113" s="116" t="s">
-        <v>473</v>
-      </c>
+      <c r="E113" s="118"/>
+      <c r="F113" s="118"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
     </row>
     <row r="114">
-      <c r="A114" s="76" t="s">
-        <v>474</v>
-      </c>
-      <c r="B114" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C114" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D114" s="48" t="s">
+      <c r="A114" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="B114" s="47" t="s">
+        <v>476</v>
+      </c>
+      <c r="C114" s="119" t="s">
+        <v>340</v>
+      </c>
+      <c r="D114" s="4"/>
+      <c r="E114" s="39" t="s">
+        <v>477</v>
+      </c>
+      <c r="F114" s="49"/>
+      <c r="G114" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E114" s="48" t="s">
-        <v>475</v>
-      </c>
-      <c r="F114" s="48"/>
-      <c r="G114" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H114" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="I114" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="H114" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="I114" s="7"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="76" t="s">
-        <v>477</v>
-      </c>
-      <c r="B115" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C115" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D115" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="E115" s="48" t="s">
-        <v>478</v>
-      </c>
-      <c r="F115" s="48"/>
-      <c r="G115" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="H115" s="38" t="s">
+      <c r="A115" s="77" t="s">
         <v>479</v>
       </c>
-      <c r="I115" s="7"/>
+      <c r="B115" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C115" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D115" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E115" s="49" t="s">
+        <v>480</v>
+      </c>
+      <c r="F115" s="49"/>
+      <c r="G115" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H115" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
     </row>
     <row r="116">
-      <c r="A116" s="76" t="s">
-        <v>480</v>
-      </c>
-      <c r="B116" s="54" t="s">
+      <c r="A116" s="77" t="s">
+        <v>482</v>
+      </c>
+      <c r="B116" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C116" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="D116" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="C116" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="D116" s="59" t="s">
+      <c r="E116" s="115" t="s">
+        <v>483</v>
+      </c>
+      <c r="F116" s="115"/>
+      <c r="G116" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E116" s="111" t="s">
-        <v>481</v>
-      </c>
-      <c r="F116" s="111"/>
-      <c r="G116" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="H116" s="117" t="s">
-        <v>482</v>
+      <c r="H116" s="84" t="s">
+        <v>484</v>
       </c>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
     </row>
     <row r="117">
-      <c r="A117" s="76" t="s">
-        <v>483</v>
-      </c>
-      <c r="B117" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C117" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D117" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="E117" s="111" t="s">
-        <v>484</v>
-      </c>
-      <c r="F117" s="111"/>
-      <c r="G117" s="38" t="s">
+      <c r="A117" s="77" t="s">
         <v>485</v>
       </c>
-      <c r="H117" s="38" t="s">
+      <c r="B117" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C117" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D117" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E117" s="115" t="s">
         <v>486</v>
+      </c>
+      <c r="F117" s="115"/>
+      <c r="G117" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H117" s="39" t="s">
+        <v>487</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
     </row>
     <row r="118">
-      <c r="A118" s="76" t="s">
-        <v>487</v>
-      </c>
-      <c r="B118" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C118" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="D118" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E118" s="59" t="s">
+      <c r="A118" s="77" t="s">
         <v>488</v>
       </c>
-      <c r="F118" s="59"/>
-      <c r="G118" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="H118" s="59" t="s">
+      <c r="B118" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C118" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D118" s="78" t="s">
+        <v>420</v>
+      </c>
+      <c r="E118" s="78" t="s">
         <v>489</v>
+      </c>
+      <c r="F118" s="78"/>
+      <c r="G118" s="84" t="s">
+        <v>490</v>
+      </c>
+      <c r="H118" s="84" t="s">
+        <v>491</v>
       </c>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
     </row>
     <row r="119">
-      <c r="A119" s="76" t="s">
-        <v>490</v>
-      </c>
-      <c r="B119" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C119" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D119" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="E119" s="48" t="s">
-        <v>491</v>
-      </c>
-      <c r="F119" s="48"/>
-      <c r="G119" s="48" t="s">
-        <v>423</v>
-      </c>
-      <c r="H119" s="48" t="s">
-        <v>424</v>
+      <c r="A119" s="77" t="s">
+        <v>492</v>
+      </c>
+      <c r="B119" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C119" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D119" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E119" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="F119" s="49"/>
+      <c r="G119" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="H119" s="49" t="s">
+        <v>494</v>
       </c>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
     </row>
     <row r="120">
-      <c r="A120" s="76" t="s">
-        <v>492</v>
-      </c>
-      <c r="B120" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C120" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="D120" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="E120" s="111" t="s">
-        <v>493</v>
-      </c>
-      <c r="F120" s="111"/>
-      <c r="G120" s="48" t="s">
-        <v>427</v>
-      </c>
-      <c r="H120" s="48" t="s">
+      <c r="A120" s="77" t="s">
+        <v>495</v>
+      </c>
+      <c r="B120" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="D120" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E120" s="115" t="s">
+        <v>496</v>
+      </c>
+      <c r="F120" s="115"/>
+      <c r="G120" s="49" t="s">
         <v>428</v>
+      </c>
+      <c r="H120" s="49" t="s">
+        <v>429</v>
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
     </row>
     <row r="121">
-      <c r="A121" s="76" t="s">
-        <v>494</v>
-      </c>
-      <c r="B121" s="54" t="s">
-        <v>430</v>
-      </c>
-      <c r="C121" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D121" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="E121" s="111" t="s">
-        <v>495</v>
-      </c>
-      <c r="F121" s="48"/>
-      <c r="G121" s="44" t="s">
-        <v>423</v>
-      </c>
-      <c r="H121" s="44" t="s">
-        <v>496</v>
+      <c r="A121" s="77" t="s">
+        <v>497</v>
+      </c>
+      <c r="B121" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C121" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="D121" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="E121" s="115" t="s">
+        <v>498</v>
+      </c>
+      <c r="F121" s="49"/>
+      <c r="G121" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="H121" s="49" t="s">
+        <v>433</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
     </row>
     <row r="122">
-      <c r="A122" s="76" t="s">
-        <v>497</v>
-      </c>
-      <c r="B122" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C122" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="D122" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="E122" s="111" t="s">
-        <v>498</v>
-      </c>
-      <c r="F122" s="111"/>
-      <c r="G122" s="48" t="s">
-        <v>427</v>
-      </c>
-      <c r="H122" s="48" t="s">
+      <c r="A122" s="77" t="s">
+        <v>499</v>
+      </c>
+      <c r="B122" s="55" t="s">
         <v>435</v>
+      </c>
+      <c r="C122" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="D122" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="E122" s="115" t="s">
+        <v>500</v>
+      </c>
+      <c r="F122" s="115"/>
+      <c r="G122" s="45" t="s">
+        <v>428</v>
+      </c>
+      <c r="H122" s="45" t="s">
+        <v>501</v>
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
     </row>
     <row r="123">
-      <c r="A123" s="47" t="s">
-        <v>499</v>
-      </c>
-      <c r="B123" s="46" t="s">
-        <v>500</v>
-      </c>
-      <c r="C123" s="118" t="s">
-        <v>335</v>
-      </c>
-      <c r="D123" s="119"/>
-      <c r="E123" s="120" t="s">
-        <v>501</v>
-      </c>
-      <c r="F123" s="111"/>
-      <c r="G123" s="35" t="s">
+      <c r="A123" s="77" t="s">
         <v>502</v>
       </c>
-      <c r="H123" s="35" t="s">
-        <v>473</v>
+      <c r="B123" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C123" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="D123" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="E123" s="115" t="s">
+        <v>503</v>
+      </c>
+      <c r="F123" s="115"/>
+      <c r="G123" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="H123" s="49" t="s">
+        <v>440</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
     </row>
     <row r="124">
-      <c r="A124" s="76" t="s">
-        <v>503</v>
-      </c>
-      <c r="B124" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C124" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="D124" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="E124" s="48" t="s">
+      <c r="A124" s="48" t="s">
         <v>504</v>
       </c>
-      <c r="F124" s="48"/>
-      <c r="G124" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H124" s="38" t="s">
+      <c r="B124" s="47" t="s">
         <v>505</v>
       </c>
-      <c r="I124" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="C124" s="120" t="s">
+        <v>340</v>
+      </c>
+      <c r="D124" s="121"/>
+      <c r="E124" s="39" t="s">
+        <v>506</v>
+      </c>
+      <c r="F124" s="49"/>
+      <c r="G124" s="36" t="s">
+        <v>507</v>
+      </c>
+      <c r="H124" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="76" t="s">
-        <v>506</v>
-      </c>
-      <c r="B125" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C125" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="D125" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="E125" s="48" t="s">
-        <v>507</v>
-      </c>
-      <c r="F125" s="48"/>
-      <c r="G125" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="H125" s="38" t="s">
+      <c r="A125" s="77" t="s">
         <v>508</v>
       </c>
-      <c r="I125" s="7"/>
+      <c r="B125" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C125" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="D125" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E125" s="49" t="s">
+        <v>509</v>
+      </c>
+      <c r="F125" s="49"/>
+      <c r="G125" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H125" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
     </row>
     <row r="126">
-      <c r="A126" s="76" t="s">
-        <v>509</v>
-      </c>
-      <c r="B126" s="54" t="s">
+      <c r="A126" s="77" t="s">
+        <v>511</v>
+      </c>
+      <c r="B126" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C126" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="D126" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="C126" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="D126" s="59" t="s">
+      <c r="E126" s="115" t="s">
+        <v>512</v>
+      </c>
+      <c r="F126" s="115"/>
+      <c r="G126" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="E126" s="111" t="s">
-        <v>510</v>
-      </c>
-      <c r="F126" s="111"/>
-      <c r="G126" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="H126" s="117" t="s">
-        <v>511</v>
+      <c r="H126" s="84" t="s">
+        <v>513</v>
       </c>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
     </row>
     <row r="127">
-      <c r="A127" s="76" t="s">
-        <v>512</v>
-      </c>
-      <c r="B127" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C127" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="D127" s="59" t="s">
-        <v>415</v>
-      </c>
-      <c r="E127" s="111" t="s">
-        <v>513</v>
-      </c>
-      <c r="F127" s="111"/>
-      <c r="G127" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="H127" s="38" t="s">
+      <c r="A127" s="77" t="s">
         <v>514</v>
+      </c>
+      <c r="B127" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C127" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D127" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="E127" s="115" t="s">
+        <v>515</v>
+      </c>
+      <c r="F127" s="115"/>
+      <c r="G127" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H127" s="39" t="s">
+        <v>516</v>
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="B128" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C128" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="D128" s="59" t="s">
+      <c r="A128" s="77" t="s">
+        <v>517</v>
+      </c>
+      <c r="B128" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C128" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D128" s="78" t="s">
+        <v>420</v>
+      </c>
+      <c r="E128" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="F128" s="49"/>
+      <c r="G128" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="E128" s="48" t="s">
-        <v>516</v>
-      </c>
-      <c r="F128" s="48"/>
-      <c r="G128" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="H128" s="104" t="s">
-        <v>517</v>
+      <c r="H128" s="107" t="s">
+        <v>519</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="76" t="s">
-        <v>518</v>
-      </c>
-      <c r="B129" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C129" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="D129" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="E129" s="48" t="s">
-        <v>519</v>
-      </c>
-      <c r="F129" s="48"/>
-      <c r="G129" s="48" t="s">
-        <v>423</v>
-      </c>
-      <c r="H129" s="106" t="s">
-        <v>424</v>
+      <c r="A129" s="77" t="s">
+        <v>520</v>
+      </c>
+      <c r="B129" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C129" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="D129" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="E129" s="49" t="s">
+        <v>521</v>
+      </c>
+      <c r="F129" s="49"/>
+      <c r="G129" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H129" s="107" t="s">
+        <v>522</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="76" t="s">
-        <v>520</v>
-      </c>
-      <c r="B130" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C130" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="D130" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="E130" s="48" t="s">
-        <v>521</v>
-      </c>
-      <c r="F130" s="48"/>
-      <c r="G130" s="48" t="s">
-        <v>427</v>
-      </c>
-      <c r="H130" s="106" t="s">
+      <c r="A130" s="77" t="s">
+        <v>523</v>
+      </c>
+      <c r="B130" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C130" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="D130" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E130" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="F130" s="49"/>
+      <c r="G130" s="49" t="s">
         <v>428</v>
+      </c>
+      <c r="H130" s="108" t="s">
+        <v>429</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="76" t="s">
-        <v>522</v>
-      </c>
-      <c r="B131" s="54" t="s">
-        <v>430</v>
-      </c>
-      <c r="C131" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D131" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="E131" s="59" t="s">
-        <v>523</v>
-      </c>
-      <c r="F131" s="59"/>
-      <c r="G131" s="121" t="s">
-        <v>423</v>
-      </c>
-      <c r="H131" s="121" t="s">
-        <v>524</v>
+      <c r="A131" s="77" t="s">
+        <v>525</v>
+      </c>
+      <c r="B131" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C131" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="D131" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="E131" s="78" t="s">
+        <v>526</v>
+      </c>
+      <c r="F131" s="78"/>
+      <c r="G131" s="78" t="s">
+        <v>432</v>
+      </c>
+      <c r="H131" s="78" t="s">
+        <v>433</v>
       </c>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="76" t="s">
-        <v>525</v>
-      </c>
-      <c r="B132" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C132" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="D132" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="E132" s="48" t="s">
-        <v>526</v>
-      </c>
-      <c r="F132" s="48"/>
-      <c r="G132" s="48" t="s">
-        <v>427</v>
-      </c>
-      <c r="H132" s="48" t="s">
+      <c r="A132" s="77" t="s">
+        <v>527</v>
+      </c>
+      <c r="B132" s="55" t="s">
         <v>435</v>
+      </c>
+      <c r="C132" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="D132" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="E132" s="49" t="s">
+        <v>528</v>
+      </c>
+      <c r="F132" s="49"/>
+      <c r="G132" s="45" t="s">
+        <v>428</v>
+      </c>
+      <c r="H132" s="45" t="s">
+        <v>529</v>
       </c>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="47" t="s">
-        <v>527</v>
-      </c>
-      <c r="B133" s="46" t="s">
-        <v>528</v>
-      </c>
-      <c r="C133" s="59" t="s">
-        <v>529</v>
-      </c>
-      <c r="D133" s="59" t="s">
+      <c r="A133" s="77" t="s">
         <v>530</v>
       </c>
-      <c r="E133" s="48" t="s">
+      <c r="B133" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="D133" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="E133" s="49" t="s">
         <v>531</v>
       </c>
-      <c r="F133" s="48"/>
-      <c r="G133" s="38" t="s">
-        <v>532</v>
-      </c>
-      <c r="H133" s="35" t="s">
-        <v>533</v>
+      <c r="F133" s="49"/>
+      <c r="G133" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="H133" s="49" t="s">
+        <v>440</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
     </row>
     <row r="134">
-      <c r="A134" s="47" t="s">
+      <c r="A134" s="48" t="s">
+        <v>532</v>
+      </c>
+      <c r="B134" s="47" t="s">
+        <v>533</v>
+      </c>
+      <c r="C134" s="78" t="s">
         <v>534</v>
       </c>
-      <c r="B134" s="46" t="s">
+      <c r="D134" s="78" t="s">
         <v>535</v>
       </c>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="38" t="s">
+      <c r="E134" s="49" t="s">
         <v>536</v>
       </c>
-      <c r="F134" s="48"/>
-      <c r="G134" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H134" s="35" t="s">
-        <v>473</v>
+      <c r="F134" s="49"/>
+      <c r="G134" s="39" t="s">
+        <v>537</v>
+      </c>
+      <c r="H134" s="36" t="s">
+        <v>538</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
     </row>
     <row r="135">
-      <c r="A135" s="76" t="s">
-        <v>537</v>
-      </c>
-      <c r="B135" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C135" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="D135" s="59" t="s">
+      <c r="A135" s="48" t="s">
+        <v>539</v>
+      </c>
+      <c r="B135" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="F135" s="49"/>
+      <c r="G135" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E135" s="48" t="s">
-        <v>538</v>
-      </c>
-      <c r="F135" s="48"/>
-      <c r="G135" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H135" s="38" t="s">
-        <v>539</v>
-      </c>
-      <c r="I135" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="H135" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="I135" s="7"/>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="76" t="s">
-        <v>540</v>
-      </c>
-      <c r="B136" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C136" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="D136" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="E136" s="48" t="s">
-        <v>541</v>
-      </c>
-      <c r="F136" s="48"/>
-      <c r="G136" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="H136" s="38" t="s">
+      <c r="A136" s="77" t="s">
         <v>542</v>
       </c>
-      <c r="I136" s="7"/>
+      <c r="B136" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C136" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="D136" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E136" s="49" t="s">
+        <v>543</v>
+      </c>
+      <c r="F136" s="49"/>
+      <c r="G136" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H136" s="39" t="s">
+        <v>544</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="76" t="s">
-        <v>543</v>
-      </c>
-      <c r="B137" s="54" t="s">
+      <c r="A137" s="77" t="s">
+        <v>545</v>
+      </c>
+      <c r="B137" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C137" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="D137" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="C137" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="D137" s="59" t="s">
+      <c r="E137" s="49" t="s">
+        <v>546</v>
+      </c>
+      <c r="F137" s="49"/>
+      <c r="G137" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E137" s="48" t="s">
-        <v>544</v>
-      </c>
-      <c r="F137" s="48"/>
-      <c r="G137" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="H137" s="38" t="s">
-        <v>545</v>
+      <c r="H137" s="39" t="s">
+        <v>547</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="76" t="s">
-        <v>546</v>
-      </c>
-      <c r="B138" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C138" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="D138" s="59" t="s">
-        <v>415</v>
-      </c>
-      <c r="E138" s="48" t="s">
-        <v>547</v>
-      </c>
-      <c r="F138" s="48"/>
-      <c r="G138" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="H138" s="38" t="s">
+      <c r="A138" s="77" t="s">
         <v>548</v>
+      </c>
+      <c r="B138" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C138" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D138" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="E138" s="49" t="s">
+        <v>549</v>
+      </c>
+      <c r="F138" s="49"/>
+      <c r="G138" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H138" s="39" t="s">
+        <v>550</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="76" t="s">
-        <v>549</v>
-      </c>
-      <c r="B139" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C139" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="D139" s="59" t="s">
+      <c r="A139" s="77" t="s">
+        <v>551</v>
+      </c>
+      <c r="B139" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C139" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D139" s="78" t="s">
+        <v>420</v>
+      </c>
+      <c r="E139" s="49" t="s">
+        <v>552</v>
+      </c>
+      <c r="F139" s="49"/>
+      <c r="G139" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="E139" s="48" t="s">
-        <v>550</v>
-      </c>
-      <c r="F139" s="48"/>
-      <c r="G139" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="H139" s="48" t="s">
-        <v>551</v>
+      <c r="H139" s="39" t="s">
+        <v>553</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="76" t="s">
-        <v>552</v>
-      </c>
-      <c r="B140" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C140" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="D140" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="E140" s="48" t="s">
-        <v>553</v>
-      </c>
-      <c r="F140" s="48"/>
-      <c r="G140" s="48" t="s">
-        <v>423</v>
-      </c>
-      <c r="H140" s="48" t="s">
-        <v>424</v>
+      <c r="A140" s="77" t="s">
+        <v>554</v>
+      </c>
+      <c r="B140" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C140" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="D140" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="E140" s="49" t="s">
+        <v>555</v>
+      </c>
+      <c r="F140" s="49"/>
+      <c r="G140" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="H140" s="49" t="s">
+        <v>556</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="76" t="s">
-        <v>554</v>
-      </c>
-      <c r="B141" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C141" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="D141" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="E141" s="48" t="s">
-        <v>555</v>
-      </c>
-      <c r="F141" s="48"/>
-      <c r="G141" s="48" t="s">
-        <v>427</v>
-      </c>
-      <c r="H141" s="48" t="s">
+      <c r="A141" s="77" t="s">
+        <v>557</v>
+      </c>
+      <c r="B141" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C141" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D141" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E141" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="F141" s="49"/>
+      <c r="G141" s="49" t="s">
         <v>428</v>
+      </c>
+      <c r="H141" s="49" t="s">
+        <v>429</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
     </row>
     <row r="142">
-      <c r="A142" s="76" t="s">
-        <v>556</v>
-      </c>
-      <c r="B142" s="54" t="s">
-        <v>430</v>
-      </c>
-      <c r="C142" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D142" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="E142" s="48" t="s">
-        <v>557</v>
-      </c>
-      <c r="F142" s="59"/>
-      <c r="G142" s="44" t="s">
-        <v>423</v>
-      </c>
-      <c r="H142" s="44" t="s">
-        <v>558</v>
+      <c r="A142" s="77" t="s">
+        <v>559</v>
+      </c>
+      <c r="B142" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C142" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="D142" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="E142" s="49" t="s">
+        <v>560</v>
+      </c>
+      <c r="F142" s="78"/>
+      <c r="G142" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="H142" s="49" t="s">
+        <v>433</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="76" t="s">
-        <v>559</v>
-      </c>
-      <c r="B143" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C143" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="D143" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="E143" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="F143" s="48"/>
-      <c r="G143" s="48" t="s">
-        <v>427</v>
-      </c>
-      <c r="H143" s="48" t="s">
+      <c r="A143" s="77" t="s">
+        <v>561</v>
+      </c>
+      <c r="B143" s="55" t="s">
         <v>435</v>
+      </c>
+      <c r="C143" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="D143" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="E143" s="49" t="s">
+        <v>562</v>
+      </c>
+      <c r="F143" s="49"/>
+      <c r="G143" s="45" t="s">
+        <v>428</v>
+      </c>
+      <c r="H143" s="45" t="s">
+        <v>563</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
     </row>
     <row r="144">
-      <c r="A144" s="83" t="s">
-        <v>561</v>
-      </c>
-      <c r="B144" s="37" t="s">
-        <v>562</v>
-      </c>
-      <c r="C144" s="122" t="s">
-        <v>563</v>
-      </c>
-      <c r="D144" s="122" t="s">
+      <c r="A144" s="77" t="s">
         <v>564</v>
       </c>
-      <c r="E144" s="35" t="s">
+      <c r="B144" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C144" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="D144" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="E144" s="49" t="s">
         <v>565</v>
       </c>
-      <c r="F144" s="35"/>
-      <c r="G144" s="38" t="s">
-        <v>566</v>
-      </c>
-      <c r="H144" s="123" t="s">
-        <v>567</v>
+      <c r="F144" s="49"/>
+      <c r="G144" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="H144" s="49" t="s">
+        <v>440</v>
       </c>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="19"/>
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
+      <c r="A145" s="86" t="s">
+        <v>566</v>
+      </c>
+      <c r="B145" s="61" t="s">
+        <v>567</v>
+      </c>
+      <c r="C145" s="122" t="s">
+        <v>568</v>
+      </c>
+      <c r="D145" s="122" t="s">
+        <v>569</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="F145" s="14"/>
+      <c r="G145" s="84" t="s">
+        <v>571</v>
+      </c>
+      <c r="H145" s="123" t="s">
+        <v>572</v>
+      </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
@@ -13162,28 +13190,26 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H66"/>
-    <hyperlink r:id="rId2" ref="H67"/>
-    <hyperlink r:id="rId3" ref="H78"/>
-    <hyperlink r:id="rId4" ref="H79"/>
-    <hyperlink r:id="rId5" ref="H80"/>
-    <hyperlink r:id="rId6" ref="H83"/>
-    <hyperlink r:id="rId7" ref="H84"/>
-    <hyperlink r:id="rId8" ref="H87"/>
-    <hyperlink r:id="rId9" ref="H88"/>
-    <hyperlink r:id="rId10" ref="H95"/>
-    <hyperlink r:id="rId11" ref="H96"/>
-    <hyperlink r:id="rId12" ref="H102"/>
-    <hyperlink r:id="rId13" ref="H103"/>
-    <hyperlink r:id="rId14" ref="H104"/>
-    <hyperlink r:id="rId15" ref="H105"/>
-    <hyperlink r:id="rId16" ref="H109"/>
-    <hyperlink r:id="rId17" ref="H113"/>
-    <hyperlink r:id="rId18" ref="H128"/>
-    <hyperlink r:id="rId19" ref="H129"/>
-    <hyperlink r:id="rId20" ref="H130"/>
+    <hyperlink r:id="rId1" ref="H67"/>
+    <hyperlink r:id="rId2" ref="H68"/>
+    <hyperlink r:id="rId3" ref="H79"/>
+    <hyperlink r:id="rId4" ref="H80"/>
+    <hyperlink r:id="rId5" ref="H83"/>
+    <hyperlink r:id="rId6" ref="H84"/>
+    <hyperlink r:id="rId7" ref="H88"/>
+    <hyperlink r:id="rId8" ref="H95"/>
+    <hyperlink r:id="rId9" ref="H96"/>
+    <hyperlink r:id="rId10" ref="H102"/>
+    <hyperlink r:id="rId11" ref="H103"/>
+    <hyperlink r:id="rId12" ref="H104"/>
+    <hyperlink r:id="rId13" ref="H105"/>
+    <hyperlink r:id="rId14" ref="H106"/>
+    <hyperlink r:id="rId15" ref="H109"/>
+    <hyperlink r:id="rId16" ref="H128"/>
+    <hyperlink r:id="rId17" ref="H129"/>
+    <hyperlink r:id="rId18" ref="H130"/>
   </hyperlinks>
-  <drawing r:id="rId21"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -13225,70 +13251,70 @@
     </row>
     <row r="2">
       <c r="A2" s="125" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>568</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="39" t="s">
-        <v>569</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>570</v>
+        <v>319</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="126" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B3" s="127" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>329</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>330</v>
+        <v>333</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>335</v>
       </c>
       <c r="E3" s="128" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F3" s="129" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="125" t="s">
-        <v>374</v>
-      </c>
-      <c r="B4" s="98" t="s">
-        <v>568</v>
-      </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="39" t="s">
-        <v>572</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>570</v>
+        <v>379</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>573</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="125" t="s">
-        <v>397</v>
-      </c>
-      <c r="B5" s="98" t="s">
-        <v>568</v>
-      </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="71" t="s">
         <v>573</v>
       </c>
-      <c r="F5" s="39" t="s">
-        <v>570</v>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>575</v>
       </c>
       <c r="G5" s="130"/>
       <c r="H5" s="130"/>
@@ -13313,18 +13339,18 @@
     </row>
     <row r="6">
       <c r="A6" s="125" t="s">
-        <v>446</v>
-      </c>
-      <c r="B6" s="98" t="s">
-        <v>568</v>
-      </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="39" t="s">
-        <v>574</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>570</v>
+        <v>451</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>573</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="40" t="s">
+        <v>579</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>575</v>
       </c>
       <c r="G6" s="130"/>
       <c r="H6" s="130"/>
@@ -13349,22 +13375,22 @@
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>575</v>
+        <v>441</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>580</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>576</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>577</v>
+        <v>444</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>581</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="8">
@@ -17369,36 +17395,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="131" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="B2" s="132" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="133" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B3" s="132" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="134" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="135" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B6" s="132" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="132" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8">
@@ -17409,41 +17435,41 @@
     </row>
     <row r="10">
       <c r="A10" s="135" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="135" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="B11" s="136" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="137" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="138"/>
       <c r="B13" s="139" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="140" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="141" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="142" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17">
@@ -17452,24 +17478,24 @@
     </row>
     <row r="18">
       <c r="A18" s="135" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B18" s="143" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="B19" s="144"/>
     </row>
     <row r="21">
       <c r="A21" s="135" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B21" s="145" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -17495,62 +17521,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="35" t="s">
-        <v>600</v>
+      <c r="A2" s="36" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="35" t="s">
-        <v>602</v>
+      <c r="A4" s="36" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="146" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="35" t="s">
-        <v>606</v>
+      <c r="A8" s="36" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="146" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -17576,59 +17602,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="B1" s="147" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="148" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="148" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="B9" s="7"/>
     </row>
@@ -17673,10 +17699,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="149" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="C1" s="149" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -17703,16 +17729,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -17738,14 +17764,14 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="38" t="s">
-        <v>627</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>628</v>
+      <c r="A3" s="39" t="s">
+        <v>632</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>633</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -17775,14 +17801,14 @@
       <c r="Z3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="38" t="s">
-        <v>630</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>628</v>
+      <c r="A4" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>633</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -17812,14 +17838,14 @@
       <c r="Z4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="38" t="s">
-        <v>631</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>632</v>
+      <c r="A5" s="39" t="s">
+        <v>636</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>637</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -17847,16 +17873,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>629</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -17883,16 +17909,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D7" s="150" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -17919,16 +17945,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -17955,16 +17981,16 @@
     </row>
     <row r="9">
       <c r="A9" s="151" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B9" s="152" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="C9" s="152" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D9" s="152" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="E9" s="152"/>
       <c r="F9" s="152"/>
@@ -17991,16 +18017,16 @@
     </row>
     <row r="10">
       <c r="A10" s="151" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="B10" s="152" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="C10" s="152" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D10" s="152" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="E10" s="152"/>
       <c r="F10" s="152"/>
@@ -18027,16 +18053,16 @@
     </row>
     <row r="11">
       <c r="A11" s="151" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B11" s="152" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="C11" s="152" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D11" s="152" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="E11" s="152"/>
       <c r="F11" s="152"/>
@@ -18063,16 +18089,16 @@
     </row>
     <row r="12">
       <c r="A12" s="151" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="B12" s="152" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="C12" s="152" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D12" s="152" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="E12" s="152"/>
       <c r="F12" s="152"/>
@@ -18098,17 +18124,17 @@
       <c r="Z12" s="152"/>
     </row>
     <row r="13">
-      <c r="A13" s="117" t="s">
-        <v>652</v>
-      </c>
-      <c r="B13" s="117" t="s">
-        <v>632</v>
+      <c r="A13" s="84" t="s">
+        <v>657</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>637</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -18134,17 +18160,17 @@
       <c r="Z13" s="7"/>
     </row>
     <row r="14">
-      <c r="A14" s="117" t="s">
-        <v>654</v>
-      </c>
-      <c r="B14" s="117" t="s">
-        <v>632</v>
+      <c r="A14" s="84" t="s">
+        <v>659</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>637</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -18196,51 +18222,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="153" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="135" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B2" s="135" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C2" s="135" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D2" s="135" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="132" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="B3" s="132" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="132" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="B4" s="132" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="132" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B5" s="132" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="C5" s="154" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="D5" s="132" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F13/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F13/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="665">
   <si>
     <t>Field</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.1.2</t>
+    <t>6.2.0</t>
   </si>
   <si>
     <r>
@@ -934,7 +934,7 @@
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/URL_BUYER</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1) / epo:BuyerProfile / xsd:anyURI</t>
+    <t>epo:AgentInRole (from CL1) / xsd:anyURI</t>
   </si>
   <si>
     <r>
@@ -957,7 +957,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasBuyerProfile / epo:hasURL ?</t>
+      <t xml:space="preserve"> epo:hasBuyerProfile ?</t>
     </r>
     <r>
       <rPr>
@@ -1518,7 +1518,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasBuyerProfile / epo:hasURL ?</t>
+      <t xml:space="preserve"> epo:hasBuyerProfile ?</t>
     </r>
     <r>
       <rPr>
@@ -1851,7 +1851,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasMainActivityType ?</t>
+      <t xml:space="preserve"> epo:hasMainActivity ?</t>
     </r>
     <r>
       <rPr>
@@ -1944,7 +1944,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasMainActivityType ?</t>
+      <t xml:space="preserve"> epo:hasMainActivity ?</t>
     </r>
     <r>
       <rPr>
@@ -2110,7 +2110,7 @@
     <t>epo:Procedure / epo:Purpose / at-voc:cpv (from cpv.json)</t>
   </si>
   <si>
-    <t>?this epo:hasOverallPurpose / epo:hasMainClassification ?value .</t>
+    <t>?this epo:hasPurpose / epo:hasMainClassification ?value .</t>
   </si>
   <si>
     <t>II.1.2.1</t>
@@ -3609,9 +3609,6 @@
     <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/POSTAL_CODE</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1)  / org:Organizationn (from CL2) / locn:Address / rdf:langString</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -4497,16 +4494,10 @@
     <t>buyer_legal_type.csv</t>
   </si>
   <si>
-    <t>award_criterion_type.json</t>
-  </si>
-  <si>
     <t>legal_basis.json</t>
   </si>
   <si>
     <t>cpvsuppl.json</t>
-  </si>
-  <si>
-    <t>temporal_unit.csv</t>
   </si>
   <si>
     <t>Comment (optional)</t>
@@ -5020,7 +5011,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="154">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5212,9 +5203,6 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="11" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -10316,7 +10304,7 @@
       <c r="G43" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="H43" s="67" t="s">
+      <c r="H43" s="66" t="s">
         <v>217</v>
       </c>
       <c r="I43" s="7"/>
@@ -10377,10 +10365,10 @@
         <v>223</v>
       </c>
       <c r="F45" s="64"/>
-      <c r="G45" s="68" t="s">
+      <c r="G45" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="H45" s="68" t="s">
+      <c r="H45" s="67" t="s">
         <v>224</v>
       </c>
       <c r="I45" s="7"/>
@@ -10398,17 +10386,17 @@
       <c r="A46" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="71" t="s">
+      <c r="B46" s="68"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="F46" s="70"/>
-      <c r="G46" s="71" t="s">
+      <c r="F46" s="69"/>
+      <c r="G46" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="H46" s="71" t="s">
+      <c r="H46" s="70" t="s">
         <v>227</v>
       </c>
       <c r="I46" s="7"/>
@@ -10426,7 +10414,7 @@
       <c r="A47" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="71" t="s">
         <v>229</v>
       </c>
       <c r="C47" s="4"/>
@@ -10537,7 +10525,7 @@
       <c r="H50" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="I50" s="73" t="s">
+      <c r="I50" s="72" t="s">
         <v>71</v>
       </c>
       <c r="J50" s="57"/>
@@ -10649,10 +10637,10 @@
       <c r="R53" s="28"/>
     </row>
     <row r="54">
-      <c r="A54" s="74" t="s">
+      <c r="A54" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="B54" s="75" t="s">
+      <c r="B54" s="74" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="7"/>
@@ -10661,10 +10649,10 @@
         <v>258</v>
       </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="71" t="s">
+      <c r="G54" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="H54" s="71" t="s">
+      <c r="H54" s="70" t="s">
         <v>262</v>
       </c>
       <c r="I54" s="7"/>
@@ -10790,7 +10778,7 @@
       <c r="G58" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="H58" s="76" t="s">
+      <c r="H58" s="75" t="s">
         <v>277</v>
       </c>
       <c r="I58" s="7" t="s">
@@ -10831,7 +10819,7 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="77" t="s">
+      <c r="A60" s="76" t="s">
         <v>280</v>
       </c>
       <c r="B60" s="55" t="s">
@@ -10840,7 +10828,7 @@
       <c r="C60" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="D60" s="78" t="s">
+      <c r="D60" s="77" t="s">
         <v>283</v>
       </c>
       <c r="E60" s="49" t="s">
@@ -10850,7 +10838,7 @@
       <c r="G60" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="H60" s="79" t="s">
+      <c r="H60" s="78" t="s">
         <v>286</v>
       </c>
       <c r="I60" s="7"/>
@@ -10865,26 +10853,26 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="80" t="s">
+      <c r="A61" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="B61" s="81" t="s">
+      <c r="B61" s="80" t="s">
         <v>281</v>
       </c>
-      <c r="C61" s="82" t="s">
+      <c r="C61" s="81" t="s">
         <v>282</v>
       </c>
-      <c r="D61" s="83" t="s">
+      <c r="D61" s="82" t="s">
         <v>283</v>
       </c>
       <c r="E61" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="F61" s="84"/>
+      <c r="F61" s="83"/>
       <c r="G61" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="H61" s="79" t="s">
+      <c r="H61" s="78" t="s">
         <v>288</v>
       </c>
       <c r="I61" s="7"/>
@@ -10899,7 +10887,7 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="77" t="s">
+      <c r="A62" s="76" t="s">
         <v>289</v>
       </c>
       <c r="B62" s="55" t="s">
@@ -10908,17 +10896,17 @@
       <c r="C62" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="D62" s="78" t="s">
+      <c r="D62" s="77" t="s">
         <v>292</v>
       </c>
       <c r="E62" s="56" t="s">
         <v>284</v>
       </c>
-      <c r="F62" s="78"/>
+      <c r="F62" s="77"/>
       <c r="G62" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="H62" s="79" t="s">
+      <c r="H62" s="78" t="s">
         <v>294</v>
       </c>
       <c r="I62" s="7" t="s">
@@ -10935,10 +10923,10 @@
       <c r="R62" s="28"/>
     </row>
     <row r="63">
-      <c r="A63" s="85" t="s">
+      <c r="A63" s="84" t="s">
         <v>295</v>
       </c>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="71" t="s">
         <v>296</v>
       </c>
       <c r="C63" s="4"/>
@@ -10961,7 +10949,7 @@
       <c r="R63" s="28"/>
     </row>
     <row r="64">
-      <c r="A64" s="86" t="s">
+      <c r="A64" s="85" t="s">
         <v>298</v>
       </c>
       <c r="B64" s="38" t="s">
@@ -10991,14 +10979,14 @@
       <c r="B65" s="47"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="87" t="s">
+      <c r="E65" s="86" t="s">
         <v>297</v>
       </c>
-      <c r="F65" s="70"/>
-      <c r="G65" s="71" t="s">
+      <c r="F65" s="69"/>
+      <c r="G65" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="H65" s="88" t="s">
+      <c r="H65" s="87" t="s">
         <v>301</v>
       </c>
       <c r="I65" s="7"/>
@@ -11037,7 +11025,7 @@
       <c r="R66" s="28"/>
     </row>
     <row r="67">
-      <c r="A67" s="77" t="s">
+      <c r="A67" s="76" t="s">
         <v>304</v>
       </c>
       <c r="B67" s="55" t="s">
@@ -11056,7 +11044,7 @@
       <c r="G67" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="H67" s="89" t="s">
+      <c r="H67" s="88" t="s">
         <v>310</v>
       </c>
       <c r="I67" s="7"/>
@@ -11071,7 +11059,7 @@
       <c r="R67" s="28"/>
     </row>
     <row r="68">
-      <c r="A68" s="77" t="s">
+      <c r="A68" s="76" t="s">
         <v>311</v>
       </c>
       <c r="B68" s="55" t="s">
@@ -11083,14 +11071,14 @@
       <c r="D68" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="E68" s="87" t="s">
+      <c r="E68" s="86" t="s">
         <v>313</v>
       </c>
-      <c r="F68" s="78"/>
+      <c r="F68" s="77"/>
       <c r="G68" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H68" s="90" t="s">
+      <c r="H68" s="89" t="s">
         <v>314</v>
       </c>
       <c r="I68" s="7"/>
@@ -11111,16 +11099,16 @@
       <c r="B69" s="47" t="s">
         <v>316</v>
       </c>
-      <c r="C69" s="91" t="s">
+      <c r="C69" s="90" t="s">
         <v>317</v>
       </c>
-      <c r="D69" s="91"/>
-      <c r="E69" s="91" t="s">
+      <c r="D69" s="90"/>
+      <c r="E69" s="90" t="s">
         <v>318</v>
       </c>
-      <c r="F69" s="91"/>
-      <c r="G69" s="91"/>
-      <c r="H69" s="91"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="90"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
@@ -11139,8 +11127,8 @@
       <c r="B70" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="C70" s="92"/>
-      <c r="D70" s="92"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="91"/>
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
       <c r="G70" s="4"/>
@@ -11159,7 +11147,7 @@
       <c r="R70" s="28"/>
     </row>
     <row r="71">
-      <c r="A71" s="86" t="s">
+      <c r="A71" s="85" t="s">
         <v>322</v>
       </c>
       <c r="B71" s="38" t="s">
@@ -11198,7 +11186,7 @@
       <c r="G72" s="49" t="s">
         <v>327</v>
       </c>
-      <c r="H72" s="93" t="s">
+      <c r="H72" s="92" t="s">
         <v>328</v>
       </c>
       <c r="I72" s="7" t="s">
@@ -11215,7 +11203,7 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="85" t="s">
+      <c r="A73" s="84" t="s">
         <v>329</v>
       </c>
       <c r="B73" s="34" t="s">
@@ -11223,10 +11211,10 @@
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="91" t="s">
+      <c r="E73" s="90" t="s">
         <v>331</v>
       </c>
-      <c r="F73" s="70"/>
+      <c r="F73" s="69"/>
       <c r="G73" s="40"/>
       <c r="H73" s="40"/>
       <c r="I73" s="7"/>
@@ -11256,9 +11244,9 @@
       <c r="E74" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="F74" s="91"/>
+      <c r="F74" s="90"/>
       <c r="G74" s="40"/>
-      <c r="H74" s="91"/>
+      <c r="H74" s="90"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
@@ -11271,24 +11259,24 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="94" t="s">
+      <c r="A75" s="93" t="s">
         <v>332</v>
       </c>
-      <c r="B75" s="95" t="s">
+      <c r="B75" s="94" t="s">
         <v>333</v>
       </c>
-      <c r="C75" s="96" t="s">
+      <c r="C75" s="95" t="s">
         <v>334</v>
       </c>
-      <c r="D75" s="96" t="s">
+      <c r="D75" s="95" t="s">
         <v>335</v>
       </c>
       <c r="E75" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="F75" s="91"/>
+      <c r="F75" s="90"/>
       <c r="G75" s="40"/>
-      <c r="H75" s="91"/>
+      <c r="H75" s="90"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
@@ -11301,24 +11289,24 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="94" t="s">
+      <c r="A76" s="93" t="s">
         <v>332</v>
       </c>
-      <c r="B76" s="95" t="s">
+      <c r="B76" s="94" t="s">
         <v>333</v>
       </c>
-      <c r="C76" s="96" t="s">
+      <c r="C76" s="95" t="s">
         <v>334</v>
       </c>
-      <c r="D76" s="96" t="s">
+      <c r="D76" s="95" t="s">
         <v>335</v>
       </c>
-      <c r="E76" s="91" t="s">
+      <c r="E76" s="90" t="s">
         <v>337</v>
       </c>
-      <c r="F76" s="91"/>
+      <c r="F76" s="90"/>
       <c r="G76" s="40"/>
-      <c r="H76" s="91"/>
+      <c r="H76" s="90"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
@@ -11331,13 +11319,13 @@
       <c r="R76" s="28"/>
     </row>
     <row r="77">
-      <c r="A77" s="86" t="s">
+      <c r="A77" s="85" t="s">
         <v>338</v>
       </c>
       <c r="B77" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="C77" s="97" t="s">
+      <c r="C77" s="96" t="s">
         <v>340</v>
       </c>
       <c r="D77" s="49"/>
@@ -11363,7 +11351,7 @@
       <c r="B78" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="C78" s="97" t="s">
+      <c r="C78" s="96" t="s">
         <v>340</v>
       </c>
       <c r="D78" s="4"/>
@@ -11383,7 +11371,7 @@
       <c r="R78" s="28"/>
     </row>
     <row r="79">
-      <c r="A79" s="77" t="s">
+      <c r="A79" s="76" t="s">
         <v>343</v>
       </c>
       <c r="B79" s="55" t="s">
@@ -11402,7 +11390,7 @@
       <c r="G79" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="H79" s="98" t="s">
+      <c r="H79" s="97" t="s">
         <v>349</v>
       </c>
       <c r="I79" s="7"/>
@@ -11417,7 +11405,7 @@
       <c r="R79" s="28"/>
     </row>
     <row r="80">
-      <c r="A80" s="77" t="s">
+      <c r="A80" s="76" t="s">
         <v>350</v>
       </c>
       <c r="B80" s="55" t="s">
@@ -11436,7 +11424,7 @@
       <c r="G80" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="H80" s="98" t="s">
+      <c r="H80" s="97" t="s">
         <v>354</v>
       </c>
       <c r="I80" s="7"/>
@@ -11451,24 +11439,24 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="77" t="s">
+      <c r="A81" s="76" t="s">
         <v>355</v>
       </c>
       <c r="B81" s="55" t="s">
         <v>356</v>
       </c>
-      <c r="C81" s="99" t="s">
+      <c r="C81" s="98" t="s">
         <v>317</v>
       </c>
       <c r="D81" s="49"/>
       <c r="E81" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="F81" s="71"/>
+      <c r="F81" s="70"/>
       <c r="G81" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="H81" s="91" t="s">
+      <c r="H81" s="90" t="s">
         <v>359</v>
       </c>
       <c r="I81" s="7"/>
@@ -11483,13 +11471,13 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="86" t="s">
+      <c r="A82" s="85" t="s">
         <v>360</v>
       </c>
       <c r="B82" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="C82" s="100" t="s">
+      <c r="C82" s="99" t="s">
         <v>340</v>
       </c>
       <c r="D82" s="4"/>
@@ -11509,10 +11497,10 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="77" t="s">
+      <c r="A83" s="76" t="s">
         <v>362</v>
       </c>
-      <c r="B83" s="101"/>
+      <c r="B83" s="100"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="56" t="s">
@@ -11522,7 +11510,7 @@
       <c r="G83" s="40" t="s">
         <v>363</v>
       </c>
-      <c r="H83" s="98" t="s">
+      <c r="H83" s="97" t="s">
         <v>364</v>
       </c>
       <c r="I83" s="7"/>
@@ -11537,10 +11525,10 @@
       <c r="R83" s="28"/>
     </row>
     <row r="84">
-      <c r="A84" s="77" t="s">
+      <c r="A84" s="76" t="s">
         <v>362</v>
       </c>
-      <c r="B84" s="101"/>
+      <c r="B84" s="100"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="56" t="s">
@@ -11550,7 +11538,7 @@
       <c r="G84" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="H84" s="98" t="s">
+      <c r="H84" s="97" t="s">
         <v>366</v>
       </c>
       <c r="I84" s="7"/>
@@ -11631,10 +11619,10 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="77" t="s">
+      <c r="A87" s="76" t="s">
         <v>379</v>
       </c>
-      <c r="B87" s="101" t="s">
+      <c r="B87" s="100" t="s">
         <v>320</v>
       </c>
       <c r="C87" s="4"/>
@@ -11650,16 +11638,16 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="77" t="s">
+      <c r="A88" s="76" t="s">
         <v>380</v>
       </c>
       <c r="B88" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="C88" s="91" t="s">
+      <c r="C88" s="90" t="s">
         <v>382</v>
       </c>
-      <c r="D88" s="91" t="s">
+      <c r="D88" s="90" t="s">
         <v>383</v>
       </c>
       <c r="E88" s="40" t="s">
@@ -11669,7 +11657,7 @@
       <c r="G88" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="H88" s="98" t="s">
+      <c r="H88" s="97" t="s">
         <v>386</v>
       </c>
       <c r="I88" s="7"/>
@@ -11677,14 +11665,14 @@
       <c r="K88" s="7"/>
     </row>
     <row r="89">
-      <c r="A89" s="77" t="s">
+      <c r="A89" s="76" t="s">
         <v>387</v>
       </c>
       <c r="B89" s="55" t="s">
         <v>388</v>
       </c>
-      <c r="C89" s="91"/>
-      <c r="D89" s="91"/>
+      <c r="C89" s="90"/>
+      <c r="D89" s="90"/>
       <c r="E89" s="40" t="s">
         <v>389</v>
       </c>
@@ -11700,14 +11688,14 @@
       <c r="K89" s="7"/>
     </row>
     <row r="90">
-      <c r="A90" s="77" t="s">
+      <c r="A90" s="76" t="s">
         <v>392</v>
       </c>
       <c r="B90" s="55" t="s">
         <v>393</v>
       </c>
-      <c r="C90" s="91"/>
-      <c r="D90" s="91"/>
+      <c r="C90" s="90"/>
+      <c r="D90" s="90"/>
       <c r="E90" s="40" t="s">
         <v>394</v>
       </c>
@@ -11723,24 +11711,24 @@
       <c r="K90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="80" t="s">
+      <c r="A91" s="79" t="s">
         <v>396</v>
       </c>
-      <c r="B91" s="81" t="s">
+      <c r="B91" s="80" t="s">
         <v>397</v>
       </c>
-      <c r="C91" s="102" t="s">
+      <c r="C91" s="101" t="s">
         <v>398</v>
       </c>
-      <c r="D91" s="70"/>
-      <c r="E91" s="103" t="s">
+      <c r="D91" s="69"/>
+      <c r="E91" s="102" t="s">
         <v>399</v>
       </c>
-      <c r="F91" s="70"/>
+      <c r="F91" s="69"/>
       <c r="G91" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="H91" s="91" t="s">
+      <c r="H91" s="90" t="s">
         <v>151</v>
       </c>
       <c r="I91" s="7"/>
@@ -11754,12 +11742,12 @@
       <c r="B92" s="47" t="s">
         <v>401</v>
       </c>
-      <c r="C92" s="104" t="s">
+      <c r="C92" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="D92" s="78"/>
-      <c r="E92" s="84"/>
-      <c r="F92" s="78"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="77"/>
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
       <c r="I92" s="7"/>
@@ -11767,10 +11755,10 @@
       <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="77" t="s">
+      <c r="A93" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="B93" s="101" t="s">
+      <c r="B93" s="100" t="s">
         <v>320</v>
       </c>
       <c r="C93" s="7"/>
@@ -11786,26 +11774,26 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="77" t="s">
+      <c r="A94" s="76" t="s">
         <v>403</v>
       </c>
       <c r="B94" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C94" s="91" t="s">
+      <c r="C94" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="D94" s="91" t="s">
+      <c r="D94" s="90" t="s">
         <v>59</v>
       </c>
       <c r="E94" s="40" t="s">
         <v>404</v>
       </c>
       <c r="F94" s="40"/>
-      <c r="G94" s="105" t="s">
+      <c r="G94" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="H94" s="105" t="s">
+      <c r="H94" s="104" t="s">
         <v>405</v>
       </c>
       <c r="I94" s="7" t="s">
@@ -11815,7 +11803,7 @@
       <c r="K94" s="7"/>
     </row>
     <row r="95">
-      <c r="A95" s="77" t="s">
+      <c r="A95" s="76" t="s">
         <v>406</v>
       </c>
       <c r="B95" s="55" t="s">
@@ -11834,7 +11822,7 @@
       <c r="G95" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="H95" s="106" t="s">
+      <c r="H95" s="105" t="s">
         <v>408</v>
       </c>
       <c r="I95" s="7" t="s">
@@ -11844,7 +11832,7 @@
       <c r="K95" s="7"/>
     </row>
     <row r="96">
-      <c r="A96" s="77" t="s">
+      <c r="A96" s="76" t="s">
         <v>409</v>
       </c>
       <c r="B96" s="55" t="s">
@@ -11863,7 +11851,7 @@
       <c r="G96" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H96" s="107" t="s">
+      <c r="H96" s="106" t="s">
         <v>411</v>
       </c>
       <c r="I96" s="7"/>
@@ -11871,7 +11859,7 @@
       <c r="K96" s="7"/>
     </row>
     <row r="97">
-      <c r="A97" s="77" t="s">
+      <c r="A97" s="76" t="s">
         <v>412</v>
       </c>
       <c r="B97" s="55" t="s">
@@ -11898,7 +11886,7 @@
       <c r="K97" s="7"/>
     </row>
     <row r="98">
-      <c r="A98" s="77" t="s">
+      <c r="A98" s="76" t="s">
         <v>415</v>
       </c>
       <c r="B98" s="55" t="s">
@@ -11927,7 +11915,7 @@
       <c r="K98" s="7"/>
     </row>
     <row r="99">
-      <c r="A99" s="77" t="s">
+      <c r="A99" s="76" t="s">
         <v>419</v>
       </c>
       <c r="B99" s="55" t="s">
@@ -11954,7 +11942,7 @@
       <c r="K99" s="7"/>
     </row>
     <row r="100">
-      <c r="A100" s="77" t="s">
+      <c r="A100" s="76" t="s">
         <v>423</v>
       </c>
       <c r="B100" s="55" t="s">
@@ -11981,7 +11969,7 @@
       <c r="K100" s="7"/>
     </row>
     <row r="101">
-      <c r="A101" s="77" t="s">
+      <c r="A101" s="76" t="s">
         <v>426</v>
       </c>
       <c r="B101" s="55" t="s">
@@ -12008,7 +11996,7 @@
       <c r="K101" s="7"/>
     </row>
     <row r="102">
-      <c r="A102" s="77" t="s">
+      <c r="A102" s="76" t="s">
         <v>430</v>
       </c>
       <c r="B102" s="55" t="s">
@@ -12027,7 +12015,7 @@
       <c r="G102" s="49" t="s">
         <v>432</v>
       </c>
-      <c r="H102" s="108" t="s">
+      <c r="H102" s="107" t="s">
         <v>433</v>
       </c>
       <c r="I102" s="7"/>
@@ -12035,7 +12023,7 @@
       <c r="K102" s="7"/>
     </row>
     <row r="103">
-      <c r="A103" s="77" t="s">
+      <c r="A103" s="76" t="s">
         <v>434</v>
       </c>
       <c r="B103" s="55" t="s">
@@ -12054,7 +12042,7 @@
       <c r="G103" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="H103" s="106" t="s">
+      <c r="H103" s="105" t="s">
         <v>437</v>
       </c>
       <c r="I103" s="7"/>
@@ -12062,7 +12050,7 @@
       <c r="K103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="77" t="s">
+      <c r="A104" s="76" t="s">
         <v>438</v>
       </c>
       <c r="B104" s="55" t="s">
@@ -12081,7 +12069,7 @@
       <c r="G104" s="49" t="s">
         <v>432</v>
       </c>
-      <c r="H104" s="108" t="s">
+      <c r="H104" s="107" t="s">
         <v>440</v>
       </c>
       <c r="I104" s="7"/>
@@ -12089,7 +12077,7 @@
       <c r="K104" s="7"/>
     </row>
     <row r="105">
-      <c r="A105" s="77" t="s">
+      <c r="A105" s="76" t="s">
         <v>441</v>
       </c>
       <c r="B105" s="55" t="s">
@@ -12108,7 +12096,7 @@
       <c r="G105" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="H105" s="109" t="s">
+      <c r="H105" s="108" t="s">
         <v>447</v>
       </c>
       <c r="I105" s="7"/>
@@ -12116,7 +12104,7 @@
       <c r="K105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="77" t="s">
+      <c r="A106" s="76" t="s">
         <v>441</v>
       </c>
       <c r="B106" s="55" t="s">
@@ -12125,17 +12113,17 @@
       <c r="C106" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="D106" s="78" t="s">
+      <c r="D106" s="77" t="s">
         <v>444</v>
       </c>
-      <c r="E106" s="87" t="s">
+      <c r="E106" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="F106" s="84"/>
+      <c r="F106" s="83"/>
       <c r="G106" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="H106" s="110" t="s">
+      <c r="H106" s="109" t="s">
         <v>448</v>
       </c>
       <c r="I106" s="7"/>
@@ -12149,7 +12137,7 @@
       <c r="B107" s="47" t="s">
         <v>450</v>
       </c>
-      <c r="C107" s="97" t="s">
+      <c r="C107" s="96" t="s">
         <v>340</v>
       </c>
       <c r="D107" s="49"/>
@@ -12162,10 +12150,10 @@
       <c r="K107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="77" t="s">
+      <c r="A108" s="76" t="s">
         <v>451</v>
       </c>
-      <c r="B108" s="101" t="s">
+      <c r="B108" s="100" t="s">
         <v>320</v>
       </c>
       <c r="C108" s="4"/>
@@ -12181,7 +12169,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="77" t="s">
+      <c r="A109" s="76" t="s">
         <v>452</v>
       </c>
       <c r="B109" s="55" t="s">
@@ -12190,17 +12178,17 @@
       <c r="C109" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="D109" s="84" t="s">
+      <c r="D109" s="83" t="s">
         <v>455</v>
       </c>
-      <c r="E109" s="78" t="s">
+      <c r="E109" s="77" t="s">
         <v>456</v>
       </c>
-      <c r="F109" s="78"/>
-      <c r="G109" s="71" t="s">
+      <c r="F109" s="77"/>
+      <c r="G109" s="70" t="s">
         <v>457</v>
       </c>
-      <c r="H109" s="111" t="s">
+      <c r="H109" s="110" t="s">
         <v>458</v>
       </c>
       <c r="I109" s="7"/>
@@ -12208,13 +12196,13 @@
       <c r="K109" s="7"/>
     </row>
     <row r="110">
-      <c r="A110" s="112" t="s">
+      <c r="A110" s="111" t="s">
         <v>459</v>
       </c>
-      <c r="B110" s="113" t="s">
+      <c r="B110" s="112" t="s">
         <v>460</v>
       </c>
-      <c r="C110" s="114" t="s">
+      <c r="C110" s="113" t="s">
         <v>461</v>
       </c>
       <c r="D110" s="49"/>
@@ -12233,7 +12221,7 @@
       <c r="K110" s="7"/>
     </row>
     <row r="111">
-      <c r="A111" s="85" t="s">
+      <c r="A111" s="84" t="s">
         <v>465</v>
       </c>
       <c r="B111" s="34" t="s">
@@ -12250,26 +12238,26 @@
       <c r="K111" s="7"/>
     </row>
     <row r="112">
-      <c r="A112" s="86" t="s">
+      <c r="A112" s="85" t="s">
         <v>467</v>
       </c>
       <c r="B112" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="C112" s="78" t="s">
+      <c r="C112" s="77" t="s">
         <v>469</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="E112" s="115" t="s">
+      <c r="E112" s="114" t="s">
         <v>471</v>
       </c>
-      <c r="F112" s="115"/>
-      <c r="G112" s="116" t="s">
+      <c r="F112" s="114"/>
+      <c r="G112" s="115" t="s">
         <v>235</v>
       </c>
-      <c r="H112" s="117" t="s">
+      <c r="H112" s="116" t="s">
         <v>472</v>
       </c>
       <c r="I112" s="7" t="s">
@@ -12279,18 +12267,18 @@
       <c r="K112" s="7"/>
     </row>
     <row r="113">
-      <c r="A113" s="86" t="s">
+      <c r="A113" s="85" t="s">
         <v>473</v>
       </c>
       <c r="B113" s="38" t="s">
         <v>474</v>
       </c>
-      <c r="C113" s="97" t="s">
+      <c r="C113" s="96" t="s">
         <v>340</v>
       </c>
       <c r="D113" s="4"/>
-      <c r="E113" s="118"/>
-      <c r="F113" s="118"/>
+      <c r="E113" s="117"/>
+      <c r="F113" s="117"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="7"/>
@@ -12304,7 +12292,7 @@
       <c r="B114" s="47" t="s">
         <v>476</v>
       </c>
-      <c r="C114" s="119" t="s">
+      <c r="C114" s="118" t="s">
         <v>340</v>
       </c>
       <c r="D114" s="4"/>
@@ -12323,7 +12311,7 @@
       <c r="K114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="77" t="s">
+      <c r="A115" s="76" t="s">
         <v>479</v>
       </c>
       <c r="B115" s="55" t="s">
@@ -12352,26 +12340,26 @@
       <c r="K115" s="7"/>
     </row>
     <row r="116">
-      <c r="A116" s="77" t="s">
+      <c r="A116" s="76" t="s">
         <v>482</v>
       </c>
       <c r="B116" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C116" s="78" t="s">
+      <c r="C116" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="D116" s="78" t="s">
+      <c r="D116" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="E116" s="115" t="s">
+      <c r="E116" s="114" t="s">
         <v>483</v>
       </c>
-      <c r="F116" s="115"/>
+      <c r="F116" s="114"/>
       <c r="G116" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="H116" s="84" t="s">
+      <c r="H116" s="83" t="s">
         <v>484</v>
       </c>
       <c r="I116" s="7"/>
@@ -12379,7 +12367,7 @@
       <c r="K116" s="7"/>
     </row>
     <row r="117">
-      <c r="A117" s="77" t="s">
+      <c r="A117" s="76" t="s">
         <v>485</v>
       </c>
       <c r="B117" s="55" t="s">
@@ -12391,10 +12379,10 @@
       <c r="D117" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="E117" s="115" t="s">
+      <c r="E117" s="114" t="s">
         <v>486</v>
       </c>
-      <c r="F117" s="115"/>
+      <c r="F117" s="114"/>
       <c r="G117" s="39" t="s">
         <v>77</v>
       </c>
@@ -12406,7 +12394,7 @@
       <c r="K117" s="7"/>
     </row>
     <row r="118">
-      <c r="A118" s="77" t="s">
+      <c r="A118" s="76" t="s">
         <v>488</v>
       </c>
       <c r="B118" s="55" t="s">
@@ -12415,26 +12403,26 @@
       <c r="C118" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D118" s="78" t="s">
+      <c r="D118" s="77" t="s">
         <v>420</v>
       </c>
-      <c r="E118" s="78" t="s">
+      <c r="E118" s="77" t="s">
         <v>489</v>
       </c>
-      <c r="F118" s="78"/>
-      <c r="G118" s="84" t="s">
+      <c r="F118" s="77"/>
+      <c r="G118" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="H118" s="83" t="s">
         <v>490</v>
-      </c>
-      <c r="H118" s="84" t="s">
-        <v>491</v>
       </c>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
     </row>
     <row r="119">
-      <c r="A119" s="77" t="s">
-        <v>492</v>
+      <c r="A119" s="76" t="s">
+        <v>491</v>
       </c>
       <c r="B119" s="55" t="s">
         <v>101</v>
@@ -12446,36 +12434,36 @@
         <v>103</v>
       </c>
       <c r="E119" s="49" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F119" s="49"/>
       <c r="G119" s="49" t="s">
         <v>105</v>
       </c>
       <c r="H119" s="49" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
     </row>
     <row r="120">
-      <c r="A120" s="77" t="s">
-        <v>495</v>
+      <c r="A120" s="76" t="s">
+        <v>494</v>
       </c>
       <c r="B120" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="78" t="s">
+      <c r="C120" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="D120" s="78" t="s">
+      <c r="D120" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="E120" s="115" t="s">
-        <v>496</v>
-      </c>
-      <c r="F120" s="115"/>
+      <c r="E120" s="114" t="s">
+        <v>495</v>
+      </c>
+      <c r="F120" s="114"/>
       <c r="G120" s="49" t="s">
         <v>428</v>
       </c>
@@ -12487,20 +12475,20 @@
       <c r="K120" s="7"/>
     </row>
     <row r="121">
-      <c r="A121" s="77" t="s">
-        <v>497</v>
+      <c r="A121" s="76" t="s">
+        <v>496</v>
       </c>
       <c r="B121" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C121" s="78" t="s">
+      <c r="C121" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D121" s="78" t="s">
+      <c r="D121" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="E121" s="115" t="s">
-        <v>498</v>
+      <c r="E121" s="114" t="s">
+        <v>497</v>
       </c>
       <c r="F121" s="49"/>
       <c r="G121" s="49" t="s">
@@ -12514,49 +12502,49 @@
       <c r="K121" s="7"/>
     </row>
     <row r="122">
-      <c r="A122" s="77" t="s">
-        <v>499</v>
+      <c r="A122" s="76" t="s">
+        <v>498</v>
       </c>
       <c r="B122" s="55" t="s">
         <v>435</v>
       </c>
-      <c r="C122" s="78" t="s">
+      <c r="C122" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="D122" s="78" t="s">
+      <c r="D122" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="E122" s="115" t="s">
-        <v>500</v>
-      </c>
-      <c r="F122" s="115"/>
+      <c r="E122" s="114" t="s">
+        <v>499</v>
+      </c>
+      <c r="F122" s="114"/>
       <c r="G122" s="45" t="s">
         <v>428</v>
       </c>
       <c r="H122" s="45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
     </row>
     <row r="123">
-      <c r="A123" s="77" t="s">
-        <v>502</v>
+      <c r="A123" s="76" t="s">
+        <v>501</v>
       </c>
       <c r="B123" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C123" s="78" t="s">
+      <c r="C123" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="78" t="s">
+      <c r="D123" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="E123" s="115" t="s">
-        <v>503</v>
-      </c>
-      <c r="F123" s="115"/>
+      <c r="E123" s="114" t="s">
+        <v>502</v>
+      </c>
+      <c r="F123" s="114"/>
       <c r="G123" s="49" t="s">
         <v>432</v>
       </c>
@@ -12569,21 +12557,21 @@
     </row>
     <row r="124">
       <c r="A124" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="B124" s="47" t="s">
         <v>504</v>
       </c>
-      <c r="B124" s="47" t="s">
+      <c r="C124" s="119" t="s">
+        <v>340</v>
+      </c>
+      <c r="D124" s="120"/>
+      <c r="E124" s="39" t="s">
         <v>505</v>
-      </c>
-      <c r="C124" s="120" t="s">
-        <v>340</v>
-      </c>
-      <c r="D124" s="121"/>
-      <c r="E124" s="39" t="s">
-        <v>506</v>
       </c>
       <c r="F124" s="49"/>
       <c r="G124" s="36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H124" s="36" t="s">
         <v>478</v>
@@ -12593,27 +12581,27 @@
       <c r="K124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="77" t="s">
-        <v>508</v>
+      <c r="A125" s="76" t="s">
+        <v>507</v>
       </c>
       <c r="B125" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C125" s="78" t="s">
+      <c r="C125" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="D125" s="78" t="s">
+      <c r="D125" s="77" t="s">
         <v>59</v>
       </c>
       <c r="E125" s="49" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F125" s="49"/>
       <c r="G125" s="39" t="s">
         <v>61</v>
       </c>
       <c r="H125" s="39" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I125" s="7" t="s">
         <v>63</v>
@@ -12622,134 +12610,134 @@
       <c r="K125" s="7"/>
     </row>
     <row r="126">
-      <c r="A126" s="77" t="s">
-        <v>511</v>
+      <c r="A126" s="76" t="s">
+        <v>510</v>
       </c>
       <c r="B126" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C126" s="78" t="s">
+      <c r="C126" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="D126" s="78" t="s">
+      <c r="D126" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="E126" s="115" t="s">
+      <c r="E126" s="114" t="s">
+        <v>511</v>
+      </c>
+      <c r="F126" s="114"/>
+      <c r="G126" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="H126" s="83" t="s">
         <v>512</v>
-      </c>
-      <c r="F126" s="115"/>
-      <c r="G126" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="H126" s="84" t="s">
-        <v>513</v>
       </c>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
     </row>
     <row r="127">
-      <c r="A127" s="77" t="s">
-        <v>514</v>
+      <c r="A127" s="76" t="s">
+        <v>513</v>
       </c>
       <c r="B127" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C127" s="78" t="s">
+      <c r="C127" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="D127" s="78" t="s">
+      <c r="D127" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="E127" s="115" t="s">
-        <v>515</v>
-      </c>
-      <c r="F127" s="115"/>
+      <c r="E127" s="114" t="s">
+        <v>514</v>
+      </c>
+      <c r="F127" s="114"/>
       <c r="G127" s="39" t="s">
         <v>77</v>
       </c>
       <c r="H127" s="39" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="77" t="s">
-        <v>517</v>
+      <c r="A128" s="76" t="s">
+        <v>516</v>
       </c>
       <c r="B128" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C128" s="78" t="s">
+      <c r="C128" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="D128" s="78" t="s">
+      <c r="D128" s="77" t="s">
         <v>420</v>
       </c>
       <c r="E128" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F128" s="49"/>
       <c r="G128" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="H128" s="107" t="s">
-        <v>519</v>
+      <c r="H128" s="106" t="s">
+        <v>518</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="77" t="s">
-        <v>520</v>
+      <c r="A129" s="76" t="s">
+        <v>519</v>
       </c>
       <c r="B129" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C129" s="78" t="s">
+      <c r="C129" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="D129" s="78" t="s">
+      <c r="D129" s="77" t="s">
         <v>103</v>
       </c>
       <c r="E129" s="49" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F129" s="49"/>
       <c r="G129" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="H129" s="107" t="s">
-        <v>522</v>
+      <c r="H129" s="106" t="s">
+        <v>521</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="77" t="s">
-        <v>523</v>
+      <c r="A130" s="76" t="s">
+        <v>522</v>
       </c>
       <c r="B130" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C130" s="78" t="s">
+      <c r="C130" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="D130" s="78" t="s">
+      <c r="D130" s="77" t="s">
         <v>123</v>
       </c>
       <c r="E130" s="49" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F130" s="49"/>
       <c r="G130" s="49" t="s">
         <v>428</v>
       </c>
-      <c r="H130" s="108" t="s">
+      <c r="H130" s="107" t="s">
         <v>429</v>
       </c>
       <c r="I130" s="7"/>
@@ -12757,26 +12745,26 @@
       <c r="K130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="77" t="s">
-        <v>525</v>
+      <c r="A131" s="76" t="s">
+        <v>524</v>
       </c>
       <c r="B131" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C131" s="78" t="s">
+      <c r="C131" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D131" s="78" t="s">
+      <c r="D131" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="E131" s="78" t="s">
-        <v>526</v>
-      </c>
-      <c r="F131" s="78"/>
-      <c r="G131" s="78" t="s">
+      <c r="E131" s="77" t="s">
+        <v>525</v>
+      </c>
+      <c r="F131" s="77"/>
+      <c r="G131" s="77" t="s">
         <v>432</v>
       </c>
-      <c r="H131" s="78" t="s">
+      <c r="H131" s="77" t="s">
         <v>433</v>
       </c>
       <c r="I131" s="7"/>
@@ -12784,47 +12772,47 @@
       <c r="K131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="77" t="s">
-        <v>527</v>
+      <c r="A132" s="76" t="s">
+        <v>526</v>
       </c>
       <c r="B132" s="55" t="s">
         <v>435</v>
       </c>
-      <c r="C132" s="78" t="s">
+      <c r="C132" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="D132" s="78" t="s">
+      <c r="D132" s="77" t="s">
         <v>138</v>
       </c>
       <c r="E132" s="49" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F132" s="49"/>
       <c r="G132" s="45" t="s">
         <v>428</v>
       </c>
       <c r="H132" s="45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="77" t="s">
-        <v>530</v>
+      <c r="A133" s="76" t="s">
+        <v>529</v>
       </c>
       <c r="B133" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C133" s="78" t="s">
+      <c r="C133" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="D133" s="78" t="s">
+      <c r="D133" s="77" t="s">
         <v>130</v>
       </c>
       <c r="E133" s="49" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F133" s="49"/>
       <c r="G133" s="49" t="s">
@@ -12839,26 +12827,26 @@
     </row>
     <row r="134">
       <c r="A134" s="48" t="s">
+        <v>531</v>
+      </c>
+      <c r="B134" s="47" t="s">
         <v>532</v>
       </c>
-      <c r="B134" s="47" t="s">
+      <c r="C134" s="77" t="s">
         <v>533</v>
       </c>
-      <c r="C134" s="78" t="s">
+      <c r="D134" s="77" t="s">
         <v>534</v>
       </c>
-      <c r="D134" s="78" t="s">
+      <c r="E134" s="49" t="s">
         <v>535</v>
-      </c>
-      <c r="E134" s="49" t="s">
-        <v>536</v>
       </c>
       <c r="F134" s="49"/>
       <c r="G134" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="H134" s="36" t="s">
         <v>537</v>
-      </c>
-      <c r="H134" s="36" t="s">
-        <v>538</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
@@ -12866,15 +12854,15 @@
     </row>
     <row r="135">
       <c r="A135" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="B135" s="47" t="s">
         <v>539</v>
-      </c>
-      <c r="B135" s="47" t="s">
-        <v>540</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="39" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F135" s="49"/>
       <c r="G135" s="36" t="s">
@@ -12888,27 +12876,27 @@
       <c r="K135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="77" t="s">
-        <v>542</v>
+      <c r="A136" s="76" t="s">
+        <v>541</v>
       </c>
       <c r="B136" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C136" s="78" t="s">
+      <c r="C136" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="D136" s="78" t="s">
+      <c r="D136" s="77" t="s">
         <v>59</v>
       </c>
       <c r="E136" s="49" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F136" s="49"/>
       <c r="G136" s="39" t="s">
         <v>61</v>
       </c>
       <c r="H136" s="39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I136" s="7" t="s">
         <v>63</v>
@@ -12917,116 +12905,116 @@
       <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="77" t="s">
-        <v>545</v>
+      <c r="A137" s="76" t="s">
+        <v>544</v>
       </c>
       <c r="B137" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C137" s="78" t="s">
+      <c r="C137" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="D137" s="78" t="s">
+      <c r="D137" s="77" t="s">
         <v>75</v>
       </c>
       <c r="E137" s="49" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F137" s="49"/>
       <c r="G137" s="39" t="s">
         <v>77</v>
       </c>
       <c r="H137" s="39" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="77" t="s">
-        <v>548</v>
+      <c r="A138" s="76" t="s">
+        <v>547</v>
       </c>
       <c r="B138" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C138" s="78" t="s">
+      <c r="C138" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="D138" s="78" t="s">
+      <c r="D138" s="77" t="s">
         <v>82</v>
       </c>
       <c r="E138" s="49" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F138" s="49"/>
       <c r="G138" s="39" t="s">
         <v>77</v>
       </c>
       <c r="H138" s="39" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="77" t="s">
-        <v>551</v>
+      <c r="A139" s="76" t="s">
+        <v>550</v>
       </c>
       <c r="B139" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C139" s="78" t="s">
+      <c r="C139" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="D139" s="78" t="s">
+      <c r="D139" s="77" t="s">
         <v>420</v>
       </c>
       <c r="E139" s="49" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F139" s="49"/>
       <c r="G139" s="39" t="s">
         <v>98</v>
       </c>
       <c r="H139" s="39" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="77" t="s">
-        <v>554</v>
+      <c r="A140" s="76" t="s">
+        <v>553</v>
       </c>
       <c r="B140" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C140" s="78" t="s">
+      <c r="C140" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="D140" s="78" t="s">
+      <c r="D140" s="77" t="s">
         <v>103</v>
       </c>
       <c r="E140" s="49" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F140" s="49"/>
       <c r="G140" s="49" t="s">
         <v>105</v>
       </c>
       <c r="H140" s="49" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="77" t="s">
-        <v>557</v>
+      <c r="A141" s="76" t="s">
+        <v>556</v>
       </c>
       <c r="B141" s="55" t="s">
         <v>121</v>
@@ -13034,11 +13022,11 @@
       <c r="C141" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D141" s="78" t="s">
+      <c r="D141" s="77" t="s">
         <v>123</v>
       </c>
       <c r="E141" s="49" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F141" s="49"/>
       <c r="G141" s="49" t="s">
@@ -13052,22 +13040,22 @@
       <c r="K141" s="7"/>
     </row>
     <row r="142">
-      <c r="A142" s="77" t="s">
-        <v>559</v>
+      <c r="A142" s="76" t="s">
+        <v>558</v>
       </c>
       <c r="B142" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C142" s="78" t="s">
+      <c r="C142" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D142" s="78" t="s">
+      <c r="D142" s="77" t="s">
         <v>117</v>
       </c>
       <c r="E142" s="49" t="s">
-        <v>560</v>
-      </c>
-      <c r="F142" s="78"/>
+        <v>559</v>
+      </c>
+      <c r="F142" s="77"/>
       <c r="G142" s="49" t="s">
         <v>432</v>
       </c>
@@ -13079,47 +13067,47 @@
       <c r="K142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="77" t="s">
-        <v>561</v>
+      <c r="A143" s="76" t="s">
+        <v>560</v>
       </c>
       <c r="B143" s="55" t="s">
         <v>435</v>
       </c>
-      <c r="C143" s="78" t="s">
+      <c r="C143" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="D143" s="78" t="s">
+      <c r="D143" s="77" t="s">
         <v>138</v>
       </c>
       <c r="E143" s="49" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F143" s="49"/>
       <c r="G143" s="45" t="s">
         <v>428</v>
       </c>
       <c r="H143" s="45" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
     </row>
     <row r="144">
-      <c r="A144" s="77" t="s">
-        <v>564</v>
+      <c r="A144" s="76" t="s">
+        <v>563</v>
       </c>
       <c r="B144" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C144" s="78" t="s">
+      <c r="C144" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="D144" s="78" t="s">
+      <c r="D144" s="77" t="s">
         <v>130</v>
       </c>
       <c r="E144" s="49" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F144" s="49"/>
       <c r="G144" s="49" t="s">
@@ -13133,27 +13121,27 @@
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="86" t="s">
+      <c r="A145" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="B145" s="61" t="s">
         <v>566</v>
       </c>
-      <c r="B145" s="61" t="s">
+      <c r="C145" s="121" t="s">
         <v>567</v>
       </c>
-      <c r="C145" s="122" t="s">
+      <c r="D145" s="121" t="s">
         <v>568</v>
       </c>
-      <c r="D145" s="122" t="s">
+      <c r="E145" s="14" t="s">
         <v>569</v>
       </c>
-      <c r="E145" s="14" t="s">
+      <c r="F145" s="14"/>
+      <c r="G145" s="83" t="s">
         <v>570</v>
       </c>
-      <c r="F145" s="14"/>
-      <c r="G145" s="84" t="s">
+      <c r="H145" s="122" t="s">
         <v>571</v>
-      </c>
-      <c r="H145" s="123" t="s">
-        <v>572</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
@@ -13230,7 +13218,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="123" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -13250,135 +13238,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="124" t="s">
         <v>319</v>
       </c>
       <c r="B2" s="40" t="s">
+        <v>572</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="40" t="s">
         <v>573</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>574</v>
       </c>
-      <c r="F2" s="40" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="125" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="126" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" s="127" t="s">
+        <v>337</v>
+      </c>
+      <c r="F3" s="128" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="126" t="s">
-        <v>332</v>
-      </c>
-      <c r="B3" s="127" t="s">
-        <v>333</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>334</v>
-      </c>
-      <c r="D3" s="83" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" s="128" t="s">
-        <v>337</v>
-      </c>
-      <c r="F3" s="129" t="s">
+    <row r="4">
+      <c r="A4" s="124" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>572</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="40" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="125" t="s">
-        <v>379</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>573</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="40" t="s">
+      <c r="F4" s="40" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="124" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>572</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="40" t="s">
         <v>577</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="125" t="s">
-        <v>402</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>573</v>
-      </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="40" t="s">
+      <c r="F5" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="124" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>572</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="40" t="s">
         <v>578</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>575</v>
-      </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130"/>
-      <c r="V5" s="130"/>
-      <c r="W5" s="130"/>
-      <c r="X5" s="130"/>
-      <c r="Y5" s="130"/>
-      <c r="Z5" s="130"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="125" t="s">
-        <v>451</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>573</v>
-      </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="40" t="s">
-        <v>579</v>
-      </c>
       <c r="F6" s="40" t="s">
-        <v>575</v>
-      </c>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130"/>
+        <v>574</v>
+      </c>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
         <v>441</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>443</v>
@@ -13387,10 +13375,10 @@
         <v>444</v>
       </c>
       <c r="E7" s="49" t="s">
+        <v>580</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>581</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="8">
@@ -17394,108 +17382,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="130" t="s">
+        <v>582</v>
+      </c>
+      <c r="B2" s="131" t="s">
         <v>583</v>
       </c>
-      <c r="B2" s="132" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="132" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="133" t="s">
+      <c r="B3" s="131" t="s">
         <v>585</v>
       </c>
-      <c r="B3" s="132" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="133" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="134" t="s">
+    <row r="6">
+      <c r="A6" s="134" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="135" t="s">
+      <c r="B6" s="131" t="s">
         <v>588</v>
       </c>
-      <c r="B6" s="132" t="s">
+    </row>
+    <row r="7">
+      <c r="B7" s="131" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="132" t="s">
+    <row r="8">
+      <c r="B8" s="131"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="131"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="134" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="132"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="132"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="135" t="s">
+    <row r="11">
+      <c r="A11" s="134" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="135" t="s">
+      <c r="B11" s="135" t="s">
         <v>592</v>
       </c>
-      <c r="B11" s="136" t="s">
+    </row>
+    <row r="12">
+      <c r="B12" s="136" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="137" t="s">
+    <row r="13">
+      <c r="A13" s="137"/>
+      <c r="B13" s="138" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="138"/>
-      <c r="B13" s="139" t="s">
+    <row r="14">
+      <c r="B14" s="139" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="140" t="s">
+    <row r="15">
+      <c r="B15" s="140" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="141" t="s">
+    <row r="16">
+      <c r="B16" s="141" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="142" t="s">
+    <row r="17">
+      <c r="A17" s="134"/>
+      <c r="B17" s="28"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="134" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="135"/>
-      <c r="B17" s="28"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="135" t="s">
+      <c r="B18" s="142" t="s">
         <v>599</v>
-      </c>
-      <c r="B18" s="143" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="B19" s="143"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="134" t="s">
         <v>601</v>
       </c>
-      <c r="B19" s="144"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="135" t="s">
+      <c r="B21" s="144" t="s">
         <v>602</v>
-      </c>
-      <c r="B21" s="145" t="s">
-        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -17521,62 +17509,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="145" t="s">
         <v>609</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="146" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
         <v>611</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="146" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -17602,59 +17580,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B1" s="147" t="s">
-        <v>616</v>
+        <v>603</v>
+      </c>
+      <c r="B1" s="146" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="148" t="s">
-        <v>624</v>
+      <c r="A8" s="147" t="s">
+        <v>621</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="148" t="s">
-        <v>625</v>
+      <c r="A9" s="147" t="s">
+        <v>622</v>
       </c>
       <c r="B9" s="7"/>
     </row>
@@ -17674,7 +17652,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="136"/>
+      <c r="A1" s="135"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -17698,11 +17676,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="149" t="s">
-        <v>626</v>
-      </c>
-      <c r="C1" s="149" t="s">
-        <v>627</v>
+      <c r="A1" s="148" t="s">
+        <v>623</v>
+      </c>
+      <c r="C1" s="148" t="s">
+        <v>624</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -17729,16 +17707,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -17765,13 +17743,13 @@
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -17802,13 +17780,13 @@
     </row>
     <row r="4">
       <c r="A4" s="39" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -17839,13 +17817,13 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -17873,16 +17851,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -17909,16 +17887,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="D7" s="150" t="s">
-        <v>643</v>
+        <v>631</v>
+      </c>
+      <c r="D7" s="149" t="s">
+        <v>640</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -17945,16 +17923,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -17980,161 +17958,161 @@
       <c r="Z8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="150" t="s">
+        <v>644</v>
+      </c>
+      <c r="B9" s="151" t="s">
+        <v>645</v>
+      </c>
+      <c r="C9" s="151" t="s">
+        <v>631</v>
+      </c>
+      <c r="D9" s="151" t="s">
+        <v>646</v>
+      </c>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="151"/>
+      <c r="U9" s="151"/>
+      <c r="V9" s="151"/>
+      <c r="W9" s="151"/>
+      <c r="X9" s="151"/>
+      <c r="Y9" s="151"/>
+      <c r="Z9" s="151"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="150" t="s">
         <v>647</v>
       </c>
-      <c r="B9" s="152" t="s">
+      <c r="B10" s="151" t="s">
+        <v>645</v>
+      </c>
+      <c r="C10" s="151" t="s">
+        <v>631</v>
+      </c>
+      <c r="D10" s="151" t="s">
         <v>648</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="151"/>
+      <c r="T10" s="151"/>
+      <c r="U10" s="151"/>
+      <c r="V10" s="151"/>
+      <c r="W10" s="151"/>
+      <c r="X10" s="151"/>
+      <c r="Y10" s="151"/>
+      <c r="Z10" s="151"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="150" t="s">
+        <v>649</v>
+      </c>
+      <c r="B11" s="151" t="s">
+        <v>650</v>
+      </c>
+      <c r="C11" s="151" t="s">
+        <v>631</v>
+      </c>
+      <c r="D11" s="151" t="s">
+        <v>651</v>
+      </c>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="151"/>
+      <c r="S11" s="151"/>
+      <c r="T11" s="151"/>
+      <c r="U11" s="151"/>
+      <c r="V11" s="151"/>
+      <c r="W11" s="151"/>
+      <c r="X11" s="151"/>
+      <c r="Y11" s="151"/>
+      <c r="Z11" s="151"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="150" t="s">
+        <v>652</v>
+      </c>
+      <c r="B12" s="151" t="s">
+        <v>650</v>
+      </c>
+      <c r="C12" s="151" t="s">
+        <v>631</v>
+      </c>
+      <c r="D12" s="151" t="s">
+        <v>653</v>
+      </c>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="151"/>
+      <c r="X12" s="151"/>
+      <c r="Y12" s="151"/>
+      <c r="Z12" s="151"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="83" t="s">
+        <v>654</v>
+      </c>
+      <c r="B13" s="83" t="s">
         <v>634</v>
       </c>
-      <c r="D9" s="152" t="s">
-        <v>649</v>
-      </c>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="152"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="152"/>
-      <c r="Y9" s="152"/>
-      <c r="Z9" s="152"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="151" t="s">
-        <v>650</v>
-      </c>
-      <c r="B10" s="152" t="s">
-        <v>648</v>
-      </c>
-      <c r="C10" s="152" t="s">
-        <v>634</v>
-      </c>
-      <c r="D10" s="152" t="s">
-        <v>651</v>
-      </c>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
-      <c r="R10" s="152"/>
-      <c r="S10" s="152"/>
-      <c r="T10" s="152"/>
-      <c r="U10" s="152"/>
-      <c r="V10" s="152"/>
-      <c r="W10" s="152"/>
-      <c r="X10" s="152"/>
-      <c r="Y10" s="152"/>
-      <c r="Z10" s="152"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="151" t="s">
-        <v>652</v>
-      </c>
-      <c r="B11" s="152" t="s">
-        <v>653</v>
-      </c>
-      <c r="C11" s="152" t="s">
-        <v>634</v>
-      </c>
-      <c r="D11" s="152" t="s">
-        <v>654</v>
-      </c>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="152"/>
-      <c r="S11" s="152"/>
-      <c r="T11" s="152"/>
-      <c r="U11" s="152"/>
-      <c r="V11" s="152"/>
-      <c r="W11" s="152"/>
-      <c r="X11" s="152"/>
-      <c r="Y11" s="152"/>
-      <c r="Z11" s="152"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="151" t="s">
+      <c r="C13" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="B12" s="152" t="s">
-        <v>653</v>
-      </c>
-      <c r="C12" s="152" t="s">
-        <v>634</v>
-      </c>
-      <c r="D12" s="152" t="s">
-        <v>656</v>
-      </c>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="152"/>
-      <c r="S12" s="152"/>
-      <c r="T12" s="152"/>
-      <c r="U12" s="152"/>
-      <c r="V12" s="152"/>
-      <c r="W12" s="152"/>
-      <c r="X12" s="152"/>
-      <c r="Y12" s="152"/>
-      <c r="Z12" s="152"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="84" t="s">
-        <v>657</v>
-      </c>
-      <c r="B13" s="84" t="s">
-        <v>637</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>658</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -18160,17 +18138,17 @@
       <c r="Z13" s="7"/>
     </row>
     <row r="14">
-      <c r="A14" s="84" t="s">
-        <v>659</v>
-      </c>
-      <c r="B14" s="84" t="s">
-        <v>637</v>
+      <c r="A14" s="83" t="s">
+        <v>656</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>634</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -18221,52 +18199,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="134" t="s">
+        <v>625</v>
+      </c>
+      <c r="B2" s="134" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="135" t="s">
+      <c r="C2" s="134" t="s">
+        <v>627</v>
+      </c>
+      <c r="D2" s="134" t="s">
         <v>628</v>
       </c>
-      <c r="B2" s="135" t="s">
-        <v>629</v>
-      </c>
-      <c r="C2" s="135" t="s">
-        <v>630</v>
-      </c>
-      <c r="D2" s="135" t="s">
-        <v>631</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="131" t="s">
+        <v>658</v>
+      </c>
+      <c r="B3" s="131" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="131" t="s">
+        <v>660</v>
+      </c>
+      <c r="B4" s="131" t="s">
         <v>661</v>
       </c>
-      <c r="B3" s="132" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="131" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="132" t="s">
+      <c r="B5" s="131" t="s">
         <v>663</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="C5" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="D5" s="131" t="s">
         <v>664</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="132" t="s">
-        <v>665</v>
-      </c>
-      <c r="B5" s="132" t="s">
-        <v>666</v>
-      </c>
-      <c r="C5" s="154" t="s">
-        <v>664</v>
-      </c>
-      <c r="D5" s="132" t="s">
-        <v>667</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F13/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F13/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.2.0</t>
+    <t>6.4.0</t>
   </si>
   <si>
     <r>
@@ -390,7 +390,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -444,7 +444,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -504,7 +504,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -561,7 +561,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -618,7 +618,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1095,7 +1095,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -1137,7 +1137,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -1182,7 +1182,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1224,7 +1224,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1266,7 +1266,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -2957,7 +2957,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -3001,7 +3001,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -3051,7 +3051,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -3100,7 +3100,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -3146,7 +3146,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -3539,7 +3539,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -3584,7 +3584,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -3629,7 +3629,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -3674,7 +3674,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -3824,7 +3824,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -3869,7 +3869,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -3911,7 +3911,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -3951,7 +3951,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -4117,7 +4117,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -4162,7 +4162,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -4207,7 +4207,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -4252,7 +4252,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>

--- a/mappings/package_F13/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F13/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.5.0</t>
+    <t>6.6.0</t>
   </si>
   <si>
     <r>
@@ -133,7 +133,7 @@
     <t>Start Date</t>
   </si>
   <si>
-    <t>2020-10-08</t>
+    <t>2014-01-01</t>
   </si>
   <si>
     <t>one value, or empty cell</t>
@@ -145,7 +145,7 @@
     <t>Min XSD Version</t>
   </si>
   <si>
-    <t>R2.0.9.S03.E01</t>
+    <t>R2.0.9.S01.E01</t>
   </si>
   <si>
     <t>This fiels to be checked and updated if necessary</t>
@@ -5890,7 +5890,7 @@
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="20" t="s">

--- a/mappings/package_F13/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F13/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.7.3</t>
+    <t>6.8.1</t>
   </si>
   <si>
     <r>
